--- a/Results/Raw_output/output_Easy_react.xlsx
+++ b/Results/Raw_output/output_Easy_react.xlsx
@@ -424,72 +424,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Move Robot22 to location (6, 1) and remove the toolkit.</t>
+          <t>Move Robot32 to location (2, 9) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with 'Robot22' and 'gripper' to ensure Robot22 is equipped with a gripper capable of removing the toolkit.
-        Use the move_robot tool with 'Robot22' and the coordinates (6, 1) to move Robot22 to the desired location.
-        Use the grab_or_remove_item tool with 'Robot22' and 'toolkit' to remove the toolkit from the location.
-        Use the robot_status_change tool with 'Robot22' and 'idle' to set the robot's status to idle after completing the objective.
-    current step:
-       Use the select_known_robot_tool with 'Robot22' and 'gripper' to ensure Robot22 is equipped with a gripper capable of removing the toolkit.
+        Select Robot32 using the select_known_robot_tool and verify it has the gripper tool property to remove the toolkit.
+        Move Robot32 to location (2, 9) using the move_robot tool.
+        Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.
+        Change Robot32 status to idle using the robot_status_change tool.
+    current step:
+       Select Robot32 using the select_known_robot_tool and verify it has the gripper tool property to remove the toolkit.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has specifically requested to use the 'select_known_robot_tool' to verify if 'Robot22' is equipped with a 'gripper' tool capable of removing an item. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the necessary tools, which aligns with the user's request.
+   reason: The task requires verifying if a specific robot (Robot32) has the necessary tool property (gripper) to perform a task (remove the toolkit). The Robot_selector has the select_known_robot_tool which is used to determine if the specified robot is equipped with a tool property capable of solving the objective. Therefore, the Robot_selector is the appropriate worker to act next.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with 'Robot22' and 'gripper' to ensure Robot22 is equipped with a gripper capable of removing the toolkit.", 'Robot22 with the gripper tool property has been selected to solve the task.')
----
-replanner:
-    plan:
-        Use the move_robot tool with 'Robot22' and the coordinates (6, 1) to move Robot22 to the desired location.
-        Use the grab_or_remove_item tool with 'Robot22' and 'toolkit' to remove the toolkit from the location.
-        Use the robot_status_change tool with 'Robot22' and 'idle' to set the robot's status to idle after completing the objective.
-    current step:
-        Use the move_robot tool with 'Robot22' and the coordinates (6, 1) to move Robot22 to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action for a known robot, 'Robot22', to be moved to a specific location with coordinates (6, 1). The Controller is responsible for directly controlling robots and has the tool 'move_robot' which is needed to carry out this action. Therefore, the Controller is the appropriate worker to act next to move Robot22 to the desired position.
----
-Controller:
-   past steps: ("Use the move_robot tool with 'Robot22' and the coordinates (6, 1) to move Robot22 to the desired location.", 'Robot22 has been moved to the desired location (6, 1).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item tool with 'Robot22' and 'toolkit' to remove the toolkit from the location.
-        Use the robot_status_change tool with 'Robot22' and 'idle' to set the robot's status to idle after completing the objective.
-    current step:
-        Use the grab_or_remove_item tool with 'Robot22' and 'toolkit' to remove the toolkit from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions using the 'grab_or_remove_item' tool with a designated robot 'Robot22' to remove an item 'toolkit' from its location. The Controller is responsible for controlling the robots with a set of tools including 'grab_or_remove_item'. Therefore, the Controller is the correct worker to execute this task.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item tool with 'Robot22' and 'toolkit' to remove the toolkit from the location.", 'The toolkit has been successfully removed by Robot22.')
----
-replanner:
-    plan:
-        Use the robot_status_change tool with 'Robot22' and 'idle' to set the robot's status to idle after completing the objective.
-    current step:
-        Use the robot_status_change tool with 'Robot22' and 'idle' to set the robot's status to idle after completing the objective.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' tool which is controlled by the Controller. The Controller is responsible for changing the status of a robot, and since the objective is to set 'Robot22' status to 'idle' after completing an objective, the Controller is the appropriate worker to perform this task.
----
-Controller:
-   past steps: ("Use the robot_status_change tool with 'Robot22' and 'idle' to set the robot's status to idle after completing the objective.", 'The status of Robot22 has been successfully changed to "idle."')
+   past steps: ('Select Robot32 using the select_known_robot_tool and verify it has the gripper tool property to remove the toolkit.', 'Robot32 has been successfully selected and verified to have the gripper tool property to remove the toolkit.')
+---
+replanner:
+    plan:
+        Move Robot32 to location (2, 9) using the move_robot tool.
+        Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.
+        Change Robot32 status to idle using the robot_status_change tool.
+    current step:
+        Move Robot32 to location (2, 9) using the move_robot tool.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a particular robot (Robot32) to be moved to a specific location (2, 9). The Controller is responsible for controlling the robots, which includes moving them to designated positions using the move_robot tool. Since the robot is already specified, there is no need for the Robot_selector to act. Therefore, the Controller is the correct worker to route the current_step to in order to execute the move_robot command.
+---
+Controller:
+   past steps: ('Move Robot32 to location (2, 9) using the move_robot tool.', 'Robot32 has been successfully moved to the desired position (2, 9).')
+---
+replanner:
+    plan:
+        Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.
+        Change Robot32 status to idle using the robot_status_change tool.
+    current step:
+        Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies an action (removing an item) and the location of the item. Since the Controller is responsible for actions directly controlling the robots, such as using the 'grab_or_remove_item' tool, the Controller is the appropriate worker to act next to execute this task.
+---
+Controller:
+   past steps: ('Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.', 'The toolkit from location (2, 9) has been successfully removed.')
+---
+replanner:
+    plan:
+        Change Robot32 status to idle using the robot_status_change tool.
+    current step:
+        Change Robot32 status to idle using the robot_status_change tool.
+---
+supervisor:
+   next agent: Controller
+   reason: The task requires using the 'robot_status_change' tool to change the status of Robot32 to idle. The Controller is responsible for controlling the robots with a set of tools, which includes the 'robot_status_change' tool.
+---
+Controller:
+   past steps: ('Change Robot32 status to idle using the robot_status_change tool.', "Robot32's status has been changed to idle.")
 ---
 replanner:
     response:
-        The toolkit has been successfully removed from location (6, 1) by Robot22, which is now set to idle status. The task is complete.
+        The toolkit has been successfully removed from location (2, 9) by Robot32 equipped with the gripper tool property. Robot32's status has been set to idle, and the task is now complete.
 ---
 </t>
         </is>
@@ -498,72 +498,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot6 to location (3, 8) and remove the liquid spill.</t>
+          <t>Move Robot6 to location (5, 4) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot6 and the 'mop' tool property to ensure Robot6 is equipped to clean the liquid spill.
-        Use the move_robot function with Robot6 and the coordinates (3, 8) to move Robot6 to the location of the liquid spill.
-        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
-        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status after the task is complete.
-    current step:
-       Use the select_known_robot_tool with Robot6 and the 'mop' tool property to ensure Robot6 is equipped to clean the liquid spill.
+        Use select_known_robot_tool with Robot6 and 'mop' to check if the robot is equipped with a tool property capable of cleaning liquid spills.
+        Use move_robot with 'Robot6' and the position (5, 4) to move the robot to the location of the liquid spill.
+        Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.
+        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
+    current step:
+       Use select_known_robot_tool with Robot6 and 'mop' to check if the robot is equipped with a tool property capable of cleaning liquid spills.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: Since a specific robot (Robot6) has been mentioned and a particular tool property ('mop') is required to clean a liquid spill, the Robot_selector should use the select_known_robot_tool to verify if Robot6 is equipped with the necessary tool to perform the task.
+   reason: The user request specifies a certain robot (Robot6) and a required tool property ('mop') to check if the robot can perform a specific task (cleaning liquid spills). The Robot_selector is responsible for verifying if the specified robot is equipped with the necessary tool property to accomplish the task, using the select_known_robot_tool. Therefore, the Robot_selector should act next to carry out this verification.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot6 and the 'mop' tool property to ensure Robot6 is equipped to clean the liquid spill.", 'Robot6 with the tool property: mop has been selected to solve the task.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot6 and the coordinates (3, 8) to move Robot6 to the location of the liquid spill.
-        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
-        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status after the task is complete.
-    current step:
-        Use the move_robot function with Robot6 and the coordinates (3, 8) to move Robot6 to the location of the liquid spill.
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested the use of the move_robot function to move Robot6 to specific coordinates. The Controller is responsible for controlling the robots with tools including the move_robot function. Therefore, the Controller is the correct worker to carry out this task.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot6 and the coordinates (3, 8) to move Robot6 to the location of the liquid spill.', 'Robot6 has been successfully moved to the location of the liquid spill.')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
-        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status after the task is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specifically requested to use the grab_or_remove_item function with Robot6 to clean up a spill. Since the Controller is responsible for controlling the robots and the grab_or_remove_item function is one of the tools under the Controller's responsibility, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.", 'The liquid spill has been successfully cleaned up by Robot6.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status after the task is complete.
-    current step:
-        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status after the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' function, which is one of the tools that the Controller is responsible for. Since the task involves changing the status of Robot6 to 'idle' after the task is complete, the Controller is the appropriate worker to perform this action.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status after the task is complete.", 'The status of Robot6 has been successfully changed to "idle" after the task is complete.')
+   past steps: ("Use select_known_robot_tool with Robot6 and 'mop' to check if the robot is equipped with a tool property capable of cleaning liquid spills.", 'Robot6, equipped with a mop, has been selected to clean liquid spills.')
+---
+replanner:
+    plan:
+        Use move_robot with 'Robot6' and the position (5, 4) to move the robot to the location of the liquid spill.
+        Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.
+        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
+    current step:
+        Use move_robot with 'Robot6' and the position (5, 4) to move the robot to the location of the liquid spill.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has requested to use the 'move_robot' tool with a specified robot 'Robot6' and a given position (5, 4) to move the robot to the location of the liquid spill. Since the 'move_robot' tool is under the Controller's set of tools and the robot is already specified, the Controller is the correct worker to act next to perform the current_step of moving the robot to the desired location.
+---
+Controller:
+   past steps: ("Use move_robot with 'Robot6' and the position (5, 4) to move the robot to the location of the liquid spill.", 'Robot6 has been moved to the position (5, 4).')
+---
+replanner:
+    plan:
+        Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.
+        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
+    current step:
+        Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the robot ('Robot6') and the action to be taken ('grab_or_remove_item' with 'liquid spill'). Since the robot and the action are clearly defined, the Controller is the appropriate worker to execute the command using the provided tools.
+---
+Controller:
+   past steps: ("Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.", 'Robot6 has successfully handled the liquid spill.')
+---
+replanner:
+    plan:
+        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
+    current step:
+        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots with a set of tools, including the robot_status_change tool. Since the user request specifically mentions using the robot_status_change tool to set the status of 'Robot6' to 'idle' after the task is complete, the Controller is the correct worker to perform this current_step.
+---
+Controller:
+   past steps: ("Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.", "Robot6's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot6 equipped with a mop has moved to location (3, 8), cleaned up the liquid spill, and is now set to idle status.
+        The task is complete. Robot6 equipped with a mop has successfully cleaned the liquid spill at location (5, 4) and is now set to idle status.
 ---
 </t>
         </is>
@@ -572,72 +572,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot32 to location (12, 1) and remove the large debris.</t>
+          <t>Move Robot29 to location (5, 12) and remove the large debris.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot32 and a tool property example 'front loader' to ensure Robot32 is equipped to remove large debris.
-        Use the move_robot function with 'Robot32' and the desired position (12, 1) to move Robot32 to the location of the large debris.
-        Use the grab_or_remove_item function with 'Robot32' and 'large debris' to remove the debris from the location.
-        Use the robot_status_change function with 'Robot32' and status 'idle' to set Robot32's status to idle after the task is complete.
-    current step:
-       Use the select_known_robot_tool with Robot32 and a tool property example 'front loader' to ensure Robot32 is equipped to remove large debris.
+        Use the select_known_robot_tool to verify if Robot29 is equipped with a tool property capable of solving the objective, such as a front loader, to remove large debris.
+        Use the move_robot function to move Robot29 to the desired position at (5, 12).
+        Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).
+        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
+    current step:
+       Use the select_known_robot_tool to verify if Robot29 is equipped with a tool property capable of solving the objective, such as a front loader, to remove large debris.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifically mentions the need to use the select_known_robot_tool with Robot32 and a tool property such as 'front loader' to verify if Robot32 is equipped to remove large debris. The Robot_selector is responsible for selecting the correct robot and determining if the robot is equipped with the required tool property to solve the objective using the select_known_robot_tool.
+   reason: The Robot_selector should be utilized to verify if Robot29 has the necessary tool property, such as a front loader, for the specific objective of removing large debris. The select_known_robot_tool is designed for this purpose when a specific robot is mentioned in the objective.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot32 and a tool property example 'front loader' to ensure Robot32 is equipped to remove large debris.", 'Robot32 with the tool property "gripper" can solve the task of removing large debris. The gripper tool property is suitable for handling large debris, and Robot32 will be able to effectively remove the debris using this tool property. Therefore, Robot32 can solve the task with the tool property "gripper."')
----
-replanner:
-    plan:
-        Use the move_robot function with 'Robot32' and the desired position (12, 1) to move Robot32 to the location of the large debris.
-        Use the grab_or_remove_item function with 'Robot32' and 'large debris' to remove the debris from the location.
-        Use the robot_status_change function with 'Robot32' and status 'idle' to set Robot32's status to idle after the task is complete.
-    current step:
-        Use the move_robot function with 'Robot32' and the desired position (12, 1) to move Robot32 to the location of the large debris.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies both the robot name ('Robot32') and the desired action ('move_robot') along with the target position ((12, 1)). Since the Controller is responsible for controlling the robots and using the tool 'move_robot' is within their purview, the Controller should be the next to act to fulfill this specific request.
----
-Controller:
-   past steps: ("Use the move_robot function with 'Robot32' and the desired position (12, 1) to move Robot32 to the location of the large debris.", 'Robot32 has been moved to the desired position (12, 1)')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with 'Robot32' and 'large debris' to remove the debris from the location.
-        Use the robot_status_change function with 'Robot32' and status 'idle' to set Robot32's status to idle after the task is complete.
-    current step:
-        Use the grab_or_remove_item function with 'Robot32' and 'large debris' to remove the debris from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies using the 'grab_or_remove_item' function with 'Robot32' and 'large debris', which is one of the tools that the Controller is responsible for. The Controller should therefore be the next to act to execute this function and remove the debris from the location.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with 'Robot32' and 'large debris' to remove the debris from the location.", 'The large debris has been successfully removed by Robot32.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with 'Robot32' and status 'idle' to set Robot32's status to idle after the task is complete.
-    current step:
-        Use the robot_status_change function with 'Robot32' and status 'idle' to set Robot32's status to idle after the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The task requires the use of the 'robot_status_change' function to set Robot32's status to 'idle'. This function is one of the tools controlled by the Controller, making the Controller the appropriate worker to act next.
----
-Controller:
-   past steps: ("Use the robot_status_change function with 'Robot32' and status 'idle' to set Robot32's status to idle after the task is complete.", 'The status of Robot32 has been successfully changed to idle.')
+   past steps: ('Use the select_known_robot_tool to verify if Robot29 is equipped with a tool property capable of solving the objective, such as a front loader, to remove large debris.', 'Robot29 is equipped with a front loader and has been selected to remove the large debris.')
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot29 to the desired position at (5, 12).
+        Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).
+        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
+    current step:
+        Use the move_robot function to move Robot29 to the desired position at (5, 12).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically involves moving a robot, which is a task that falls under the responsibilities of the Controller. The Controller has the tool 'move_robot' which is designed to move the selected robot to a given position. Since the robot name 'Robot29' and the desired position coordinates (5, 12) are provided, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot29 to the desired position at (5, 12).', 'Robot29 has been successfully moved to the desired position at (5, 12).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).
+        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
+    current step:
+        Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to be taken (grab_or_remove_item) and the robot to execute it (Robot29), so the Controller is the appropriate worker to carry out this task as it has the tools to control the robots and perform the required action.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).', 'Robot29 has successfully removed the large debris.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
+    current step:
+        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots, including changing their status. Since the request is to use the robot_status_change function to set Robot29's status to idle after completing a task, the Controller is the appropriate worker to carry out this action.
+---
+Controller:
+   past steps: ("Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.", "Robot29's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot32, equipped with a gripper, has moved to location (12, 1), removed the large debris, and its status has been set to idle.
+        Robot29 equipped with a front loader has successfully moved to location (5, 12) and removed the large debris. The robot's status is now set to idle, completing the objective.
 ---
 </t>
         </is>
@@ -646,72 +646,72 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot28 to location (9, 4) and remove the dust.</t>
+          <t>Move Robot48 to location (6, 6) and remove the dust.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot28 and the 'vacuum' tool property to ensure Robot28 is equipped to remove dust.
-        Use the move_robot function with 'Robot28' as the robot_name and (9, 4) as the desired_position to move Robot28 to the correct location.
-        Use the grab_or_remove_item function with 'Robot28' as the robot_name and 'dust' as the item_name to remove the dust from the location.
-        Use the robot_status_change function with 'Robot28' as the robot_name and 'idle' as the status to set Robot28's status to idle after completing the task.
-    current step:
-       Use the select_known_robot_tool with Robot28 and the 'vacuum' tool property to ensure Robot28 is equipped to remove dust.
+        Use the 'select_known_robot_tool' tool with Robot48 and the tool property 'vacuum' to confirm that Robot48 is equipped for dust removal.
+        Use the 'move_robot' tool with Robot48 to move it to location (6, 6).
+        Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6).
+        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
+    current step:
+       Use the 'select_known_robot_tool' tool with Robot48 and the tool property 'vacuum' to confirm that Robot48 is equipped for dust removal.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the use of the 'select_known_robot_tool' and mentions a specific robot (Robot28) and a desired tool property ('vacuum'). The Robot_selector is responsible for determining if a specified robot is equipped with a tool property capable of solving the objective, which aligns with the user request.
+   reason: The user request specifies a robot (Robot48) and a desired tool property ('vacuum') necessary for a task (dust removal). As per the definition, the 'select_known_robot_tool' should be used to confirm if the specified robot is equipped with the required tool property. The Robot_selector is responsible for using the 'select_known_robot_tool', hence it should be the next to act.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot28 and the 'vacuum' tool property to ensure Robot28 is equipped to remove dust.", 'Robot28 with the tool property "broom" can solve the task of removing dust. The broom tool property is suitable for removing dust, and Robot28 can effectively use it to complete the task.')
----
-replanner:
-    plan:
-        Use the move_robot function with 'Robot28' as the robot_name and (9, 4) as the desired_position to move Robot28 to the correct location.
-        Use the grab_or_remove_item function with 'Robot28' as the robot_name and 'dust' as the item_name to remove the dust from the location.
-        Use the robot_status_change function with 'Robot28' as the robot_name and 'idle' as the status to set Robot28's status to idle after completing the task.
-    current step:
-        Use the move_robot function with 'Robot28' as the robot_name and (9, 4) as the desired_position to move Robot28 to the correct location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically asks to use the move_robot function, which is within the Controller's set of tools. Since the robot to be moved ('Robot28') and the desired position ((9, 4)) are already specified, the Controller is the right worker to execute this function and perform the current_step.
----
-Controller:
-   past steps: ("Use the move_robot function with 'Robot28' as the robot_name and (9, 4) as the desired_position to move Robot28 to the correct location.", 'Robot28 has been moved to the desired position (9, 4)')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with 'Robot28' as the robot_name and 'dust' as the item_name to remove the dust from the location.
-        Use the robot_status_change function with 'Robot28' as the robot_name and 'idle' as the status to set Robot28's status to idle after completing the task.
-    current step:
-        Use the grab_or_remove_item function with 'Robot28' as the robot_name and 'dust' as the item_name to remove the dust from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action of using the 'grab_or_remove_item' function with 'Robot28' as the robot_name and 'dust' as the item_name. Since the Controller is responsible for the 'grab_or_remove_item' function, it is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with 'Robot28' as the robot_name and 'dust' as the item_name to remove the dust from the location.", 'The dust has been successfully removed by Robot28.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with 'Robot28' as the robot_name and 'idle' as the status to set Robot28's status to idle after completing the task.
-    current step:
-        Use the robot_status_change function with 'Robot28' as the robot_name and 'idle' as the status to set Robot28's status to idle after completing the task.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to use the 'robot_status_change' function to set the status of Robot28 to 'idle' after completing its task. This function is a tool available to the 'Controller', making the Controller the appropriate worker to act next to perform the current_step as per the user's request.
----
-Controller:
-   past steps: ("Use the robot_status_change function with 'Robot28' as the robot_name and 'idle' as the status to set Robot28's status to idle after completing the task.", 'The status of Robot28 has been successfully changed to idle.')
+   past steps: ("Use the 'select_known_robot_tool' tool with Robot48 and the tool property 'vacuum' to confirm that Robot48 is equipped for dust removal.", "The initial selected tool for Robot48 was 'vacuum' for the task of dust removal. However, Robot48 is not equipped with a vacuum. The alternative tool property Robot48 has is a 'broom'. According to the list of items with associated tool properties, a broom can also be used for dust removal. Therefore, Robot48 can still solve the task using the broom to remove dust.")
+---
+replanner:
+    plan:
+        Use the 'move_robot' tool with Robot48 to move it to location (6, 6).
+        Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6) using the broom.
+        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
+    current step:
+        Use the 'move_robot' tool with Robot48 to move it to location (6, 6).
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specifically requested to use the 'move_robot' tool with Robot48 to move it to a particular location (6, 6). The Controller is responsible for controlling the robots with a set of tools which includes 'move_robot'. Therefore, the Controller is the appropriate worker to act next to carry out this task.
+---
+Controller:
+   past steps: ("Use the 'move_robot' tool with Robot48 to move it to location (6, 6).", 'Robot48 has been successfully moved to position (6, 6).')
+---
+replanner:
+    plan:
+        Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6) using the broom.
+        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
+    current step:
+        Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6) using the broom.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving a particular robot, Robot48, to remove an item, which is dust in this case, at a specific location using a tool, which is a broom. Since the robot is already specified, there is no need for the Robot_selector. The Controller is responsible for controlling robots to perform actions such as 'grab_or_remove_item' which matches the user request. Therefore, the Controller should act next to execute the 'grab_or_remove_item' tool with Robot48.
+---
+Controller:
+   past steps: ("Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6) using the broom.", 'Robot48 has successfully removed the dust at location (6, 6) using the broom.')
+---
+replanner:
+    plan:
+        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
+    current step:
+        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The 'robot_status_change' tool is within the Controller's set of tools, and the user request is to use this specific tool to change Robot48's status to 'idle' after the task is complete. Therefore, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.", "Robot48's status has been updated to 'idle' after completing the task.")
 ---
 replanner:
     response:
-        Robot28 equipped with a broom has successfully moved to location (9, 4) and removed the dust. The robot's status is now set to idle. The task is complete.
+        Robot48 was successfully moved to location (6, 6) and has removed the dust using its broom. The robot's status is now set to idle, and the task is complete.
 ---
 </t>
         </is>
@@ -720,72 +720,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (7, 6) and remove the grass.</t>
+          <t>Move Robot41 to location (1, 8) and remove the grass.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot41 and the 'lawnmower' tool property to ensure Robot41 is equipped to remove grass.
-        Use the move_robot function with Robot41 and the desired position (7, 6) to move Robot41 to the location where the grass needs to be removed.
-        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass at the location.
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after completing the task.
-    current step:
-       Use the select_known_robot_tool with Robot41 and the 'lawnmower' tool property to ensure Robot41 is equipped to remove grass.
+        Use the select_known_robot_tool with 'Robot41' as robot_name and 'lawnmower' as desired_robot_tool_property to ensure Robot41 is equipped to remove grass.
+        Use the move_robot tool with 'Robot41' as robot_name and (1, 8) as the desired_position to move Robot41 to the correct location.
+        Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).
+        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
+    current step:
+       Use the select_known_robot_tool with 'Robot41' as robot_name and 'lawnmower' as desired_robot_tool_property to ensure Robot41 is equipped to remove grass.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the use of the 'select_known_robot_tool' with a specific robot (Robot41) and a specific tool property ('lawnmower'). The Robot_selector is responsible for determining if the specified robot is equipped with the necessary tool property to perform the task, which in this case is to remove grass.
+   reason: The user has requested to use the 'select_known_robot_tool' to confirm if 'Robot41' has the 'lawnmower' tool property necessary for removing grass. The Robot_selector is responsible for determining if a specified robot is equipped with the desired tool property to complete a task.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot41 and the 'lawnmower' tool property to ensure Robot41 is equipped to remove grass.", 'Robot41 with the lawnmower tool property has been selected to remove grass.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot41 and the desired position (7, 6) to move Robot41 to the location where the grass needs to be removed.
-        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass at the location.
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after completing the task.
-    current step:
-        Use the move_robot function with Robot41 and the desired position (7, 6) to move Robot41 to the location where the grass needs to be removed.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specifically requested the use of the 'move_robot' function with Robot41 to move it to the desired position (7, 6). Since the 'move_robot' function is one of the tools under the control of the Controller, the Controller is the appropriate worker to execute this action.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot41 and the desired position (7, 6) to move Robot41 to the location where the grass needs to be removed.', 'Robot41 has been successfully moved to the location where the grass needs to be removed.')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass at the location.
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after completing the task.
-    current step:
-        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass at the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested the use of the 'grab_or_remove_item' function with a specified robot (Robot41) and an item name ('grass'). The Controller is responsible for using the tool 'grab_or_remove_item' to interact with items where the robot and item are both specified.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass at the location.", 'The grass has been successfully removed by Robot41.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after completing the task.
-    current step:
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after completing the task.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots, including changing their status with the robot_status_change tool. Since the task is to set Robot41's status to 'idle' after completing a task, the Controller is the appropriate worker to perform this action.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after completing the task.", "Robot41's status has been successfully changed to idle.")
+   past steps: ("Use the select_known_robot_tool with 'Robot41' as robot_name and 'lawnmower' as desired_robot_tool_property to ensure Robot41 is equipped to remove grass.", 'Robot41, equipped with a lawnmower, has been selected to remove the grass.')
+---
+replanner:
+    plan:
+        Use the move_robot tool with 'Robot41' as robot_name and (1, 8) as the desired_position to move Robot41 to the correct location.
+        Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).
+        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
+    current step:
+        Use the move_robot tool with 'Robot41' as robot_name and (1, 8) as the desired_position to move Robot41 to the correct location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically asks to use the 'move_robot' tool with 'Robot41' as the robot_name and coordinates (1, 8) as the desired_position. The 'Controller' is responsible for controlling the robots and has access to the 'move_robot' tool which can move a selected robot to a given position.
+---
+Controller:
+   past steps: ("Use the move_robot tool with 'Robot41' as robot_name and (1, 8) as the desired_position to move Robot41 to the correct location.", 'Robot41 has been successfully moved to the position (1, 8).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).
+        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
+    current step:
+        Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots using specific tools. Since the user request involves using the 'grab_or_remove_item' tool with a specified robot name ('Robot41') and an item name ('grass'), the Controller is the correct worker to perform this action as it falls within their set of tools. There is no need for the Robot_selector as the robot is already specified, and the request is not a generic question that would require the misc_agent.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).", 'Robot41 has grabbed/removed the grass and has been moved to the location (1, 8).')
+---
+replanner:
+    plan:
+        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
+    current step:
+        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots, which includes using the robot_status_change tool to set a robot's status. Since the task is to set Robot41's status to 'idle' after completing its task, the Controller is the appropriate worker to perform this action.
+---
+Controller:
+   past steps: ("Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.", "Robot41's status has been changed to idle.")
 ---
 replanner:
     response:
-        The grass at location (7, 6) has been successfully removed by Robot41, and its status has been set to idle. The task is complete.
+        The task has been successfully completed. Robot41, equipped with a lawnmower, has moved to location (1, 8) and removed the grass. The robot's status is now set to idle.
 ---
 </t>
         </is>
@@ -794,72 +794,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot50 to location (12, 12) and remove the small debris.</t>
+          <t>Move Robot10 to location (9, 5) and remove the small debris.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot50 and the 'gripper' tool property to ensure it is equipped to remove small debris.
-        Use the move_robot function with Robot50 to move it to the location (12, 12).
-        Use the grab_or_remove_item function with Robot50 to remove the small debris at location (12, 12).
-        Use the robot_status_change function with Robot50 to set its status to 'idle' after the debris removal is complete.
-    current step:
-       Use the select_known_robot_tool with Robot50 and the 'gripper' tool property to ensure it is equipped to remove small debris.
+        Select Robot10 using the select_known_robot_tool and verify it has a gripper tool property capable of removing small debris.
+        Move Robot10 to location (9, 5) using the move_robot tool.
+        Remove the small debris using the grab_or_remove_item tool with Robot10.
+        Change Robot10's status to idle using the robot_status_change tool.
+    current step:
+       Select Robot10 using the select_known_robot_tool and verify it has a gripper tool property capable of removing small debris.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector is responsible for selecting the correct robot and ensuring it has the appropriate tool property for the task. In this case, the user has specified Robot50 and is looking to confirm it has a 'gripper' tool property to remove small debris. The Robot_selector can use the 'select_known_robot_tool' to verify this.
+   reason: The user request specifies a particular robot (Robot10) and requires verification of its capability (having a gripper tool property capable of removing small debris). The Robot_selector is the appropriate worker to use the select_known_robot_tool to determine if Robot10 is equipped with the necessary tool property to fulfill the objective.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot50 and the 'gripper' tool property to ensure it is equipped to remove small debris.", 'Yes, Robot50 can solve the task with the tool property "vacuum" to remove small debris. While the initial selected tool property was "gripper," the vacuum can effectively remove small debris according to the list of items with associated tool properties. Therefore, Robot50 can still solve the task with the vacuum tool property.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot50 to move it to the location (12, 12).
-        Use the grab_or_remove_item function with Robot50 to remove the small debris at location (12, 12).
-        Use the robot_status_change function with Robot50 to set its status to 'idle' after the debris removal is complete.
-    current step:
-        Use the move_robot function with Robot50 to move it to the location (12, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to perform an action that involves directly controlling a robot, specifically to move Robot50 to a new location. The Controller is responsible for controlling robots with the specific tool required for this task, which is the move_robot function. Therefore, the Controller is the correct worker to act next to execute the move_robot command for Robot50 to the specified location (12, 12).
----
-Controller:
-   past steps: ('Use the move_robot function with Robot50 to move it to the location (12, 12).', 'Robot50 has been moved to the desired position (12, 12).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot50 to remove the small debris at location (12, 12).
-        Use the robot_status_change function with Robot50 to set its status to 'idle' after the debris removal is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot50 to remove the small debris at location (12, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a direct action involving a particular robot, Robot50, with an explicit instruction to remove an item, which is 'small debris' at a specific location. The Controller is responsible for controlling robots and has the tool 'grab_or_remove_item' which is needed to perform this task.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function with Robot50 to remove the small debris at location (12, 12).', 'Robot50 has successfully removed the small debris at location (12, 12).')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot50 to set its status to 'idle' after the debris removal is complete.
-    current step:
-        Use the robot_status_change function with Robot50 to set its status to 'idle' after the debris removal is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The robot_status_change function, which is required to set Robot50's status to 'idle', is a tool controlled by the Controller. Since the task at hand involves changing the status of the robot after completing an objective, specifically debris removal, the Controller is the appropriate worker to perform this current_step.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot50 to set its status to 'idle' after the debris removal is complete.", "The status of Robot50 has been set to 'idle' after the debris removal is complete.")
+   past steps: ('Select Robot10 using the select_known_robot_tool and verify it has a gripper tool property capable of removing small debris.', 'The initial selected tool for Robot10 was a gripper, which is suited for removing small debris. However, Robot10 is equipped with a vacuum tool property. According to the list of items with associated tool properties, a vacuum can also be used for small debris. Therefore, Robot10 with the vacuum tool property can still solve the task of removing small debris.')
+---
+replanner:
+    plan:
+        Move Robot10 to location (9, 5) using the move_robot tool.
+        Remove the small debris using the grab_or_remove_item tool with Robot10.
+        Change Robot10's status to idle using the robot_status_change tool.
+    current step:
+        Move Robot10 to location (9, 5) using the move_robot tool.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action of moving a specific robot, named Robot10, to a designated location (9, 5). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is used to move a selected robot to a given position. Since the robot's name and the desired position are provided, the Controller is the appropriate worker to carry out this task using the 'move_robot' tool.
+---
+Controller:
+   past steps: ('Move Robot10 to location (9, 5) using the move_robot tool.', 'Robot10 has been successfully moved to the desired position (9, 5).')
+---
+replanner:
+    plan:
+        Remove the small debris using the grab_or_remove_item tool with Robot10.
+        Change Robot10's status to idle using the robot_status_change tool.
+    current step:
+        Remove the small debris using the grab_or_remove_item tool with Robot10.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies both the action to be performed (remove small debris) and the robot to do it (Robot10). Since the Controller is responsible for controlling the robots and the specified tool to use is 'grab_or_remove_item', which is one of the Controller's tools, the Controller is the correct worker to route the current_step to in order to execute the task.
+---
+Controller:
+   past steps: ('Remove the small debris using the grab_or_remove_item tool with Robot10.', 'Robot10 has successfully grabbed/removed the small debris.')
+---
+replanner:
+    plan:
+        Change Robot10's status to idle using the robot_status_change tool.
+    current step:
+        Change Robot10's status to idle using the robot_status_change tool.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots, which includes changing their status using the robot_status_change tool. The current request is to change Robot10's status to idle, which falls under the Controller's set of tools.
+---
+Controller:
+   past steps: ("Change Robot10's status to idle using the robot_status_change tool.", "Robot10's status has been changed to idle.")
 ---
 replanner:
     response:
-        The task has been completed successfully. Robot50 equipped with a vacuum tool property has moved to location (12, 12) and removed the small debris. The robot's status is now set to 'idle'.
+        The task has been successfully completed. Robot10, equipped with a vacuum tool property, has moved to location (9, 5) and removed the small debris. Robot10's status is now set to idle.
 ---
 </t>
         </is>
@@ -868,72 +868,72 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot23 to location (9, 4) and remove the vehicle.</t>
+          <t>Move Robot13 to location (10, 10) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool to verify that Robot23 is equipped with a tow hook capable of removing the vehicle.
-        Use the move_robot function to move Robot23 to the desired position (9, 4).
-        Use the grab_or_remove_item function to remove the vehicle at location (9, 4).
-        Use the robot_status_change function to set Robot23's status to idle after the vehicle is removed.
-    current step:
-       Use the select_known_robot_tool to verify that Robot23 is equipped with a tow hook capable of removing the vehicle.
+        Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to ensure Robot13 is equipped to remove the vehicle.
+        Move Robot13 to location (10, 10) using the move_robot tool with the parameters 'Robot13' as the robot_name and '(10, 10)' as the desired_position.
+        Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.
+        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
+    current step:
+       Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to ensure Robot13 is equipped to remove the vehicle.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector should be used next as the user request specifically mentions using the select_known_robot_tool to verify if Robot23 has the necessary tool property, in this case, a tow hook, to complete the task of removing a vehicle.
+   reason: The user request specifies that Robot13 should be checked for a specific tool property ('tow hook') to remove the vehicle. The Robot_selector is the worker equipped with the select_known_robot_tool that can be used to confirm if Robot13 has the necessary tool property to accomplish the task.
 ---
 Robot_selector:
-   past steps: ('Use the select_known_robot_tool to verify that Robot23 is equipped with a tow hook capable of removing the vehicle.', 'Robot23 with the tow hook tool property has been selected to solve the task.')
----
-replanner:
-    plan:
-        Use the move_robot function to move Robot23 to the desired position (9, 4).
-        Use the grab_or_remove_item function to remove the vehicle at location (9, 4).
-        Use the robot_status_change function to set Robot23's status to idle after the vehicle is removed.
-    current step:
-        Use the move_robot function to move Robot23 to the desired position (9, 4).
----
-supervisor:
-   next agent: Controller
-   reason: The user request explicitly mentions using the 'move_robot' function to move a specified robot, Robot23, to a given position (9, 4). The Controller is responsible for controlling the robots and has the 'move_robot' function as one of its tools, making it the appropriate worker to act next.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot23 to the desired position (9, 4).', 'Robot23 has been successfully moved to the desired position (9, 4).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to remove the vehicle at location (9, 4).
-        Use the robot_status_change function to set Robot23's status to idle after the vehicle is removed.
-    current step:
-        Use the grab_or_remove_item function to remove the vehicle at location (9, 4).
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to use the 'grab_or_remove_item' function to remove an item, which is a specific directive that falls under the Controller's responsibilities. The Controller has the toolset necessary for controlling robots and their interactions with items, including the 'grab_or_remove_item' function.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to remove the vehicle at location (9, 4).', 'The robot has successfully removed the vehicle at location (9, 4).')
----
-replanner:
-    plan:
-        Use the robot_status_change function to set Robot23's status to idle after the vehicle is removed.
-    current step:
-        Use the robot_status_change function to set Robot23's status to idle after the vehicle is removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for using the robot_status_change function to alter the status of a robot. Since the task involves setting Robot23's status to idle after completing an action, the Controller is the correct worker to perform this current_step.
----
-Controller:
-   past steps: ("Use the robot_status_change function to set Robot23's status to idle after the vehicle is removed.", "Robot23's status has been successfully changed to idle after the vehicle was removed.")
+   past steps: ("Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to ensure Robot13 is equipped to remove the vehicle.", 'Robot13, equipped with a tow hook, has been selected to remove the vehicle.')
+---
+replanner:
+    plan:
+        Move Robot13 to location (10, 10) using the move_robot tool with the parameters 'Robot13' as the robot_name and '(10, 10)' as the desired_position.
+        Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.
+        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
+    current step:
+        Move Robot13 to location (10, 10) using the move_robot tool with the parameters 'Robot13' as the robot_name and '(10, 10)' as the desired_position.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to move a specified robot (Robot13) to a specific location (10, 10). The Controller is responsible for controlling the robots with a set of tools, including the 'move_robot' tool which is used to move a selected robot to a given position. Since the robot name and the desired position are provided, the Controller is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ("Move Robot13 to location (10, 10) using the move_robot tool with the parameters 'Robot13' as the robot_name and '(10, 10)' as the desired_position.", 'Robot13 has been successfully moved to the location (10, 10).')
+---
+replanner:
+    plan:
+        Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.
+        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
+    current step:
+        Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of 'grab_or_remove_item' tool with 'Robot13' as the robot_name and 'vehicle' as the item_name. Since the Controller is responsible for controlling the robots with a set of tools which includes 'grab_or_remove_item', the Controller is the appropriate worker to perform the current_step of removing the vehicle using the specified robot.
+---
+Controller:
+   past steps: ("Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.", 'The vehicle has been successfully grabbed/removed by Robot13.')
+---
+replanner:
+    plan:
+        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
+    current step:
+        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots, including changing their status with the robot_status_change tool. Since the task is to change Robot13's status to idle, the Controller is the appropriate worker to perform this action.
+---
+Controller:
+   past steps: ("Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.", "Robot13's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        The vehicle at location (9, 4) has been successfully removed by Robot23 equipped with a tow hook. Robot23's status is now set to idle. The task is complete.
+        The vehicle has been successfully removed from location (10, 10) and Robot13 is now set to idle status.
 ---
 </t>
         </is>
@@ -942,72 +942,72 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot42 to location (8, 8) and remove the construction materials.</t>
+          <t>Move Robot23 to location (8, 2) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot42 and the 'gripper' tool property to ensure Robot42 is equipped to handle construction materials.
-        Use the move_robot function with Robot42 and the coordinates (8, 8) to move Robot42 to the desired location.
-        Use the grab_or_remove_item function with Robot42 and the item name 'construction materials' to remove the materials from the location.
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status after completing the task.
-    current step:
-       Use the select_known_robot_tool with Robot42 and the 'gripper' tool property to ensure Robot42 is equipped to handle construction materials.
+        Use the select_known_robot_tool to verify that Robot23 is equipped with a 'front loader' tool property, as this is suitable for removing construction materials.
+        Use the move_robot function to move Robot23 to location (8, 2).
+        Use the grab_or_remove_item function to remove the construction materials from location (8, 2).
+        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
+    current step:
+       Use the select_known_robot_tool to verify that Robot23 is equipped with a 'front loader' tool property, as this is suitable for removing construction materials.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifically mentions the need to use the 'select_known_robot_tool' to ensure Robot42 is equipped with the 'gripper' tool property, which is a responsibility of the Robot_selector. Therefore, the Robot_selector should act next to determine if Robot42 has the required capability for handling construction materials.
+   reason: The Robot_selector is responsible for selecting the correct robot and verifying its equipment. The user has requested to use the 'select_known_robot_tool' to verify that Robot23 is equipped with a 'front loader' tool property, which falls under the Robot_selector's responsibilities.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot42 and the 'gripper' tool property to ensure Robot42 is equipped to handle construction materials.", 'Robot42 can solve the task with the tool property "gripper." The gripper tool property is suitable for handling construction materials, as well as small debris and screws, making it a versatile tool for the task at hand. Therefore, Robot42 can effectively handle construction materials with the gripper tool property.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot42 and the coordinates (8, 8) to move Robot42 to the desired location.
-        Use the grab_or_remove_item function with Robot42 and the item name 'construction materials' to remove the materials from the location.
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status after completing the task.
-    current step:
-        Use the move_robot function with Robot42 and the coordinates (8, 8) to move Robot42 to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically calls for the use of the 'move_robot' function to move Robot42 to the desired coordinates (8, 8). The 'Controller' is responsible for controlling the robots using the tools provided, which includes the 'move_robot' function. Therefore, the Controller is the appropriate worker to act next to fulfill the user's request.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot42 and the coordinates (8, 8) to move Robot42 to the desired location.', 'Robot42 has been successfully moved to the desired location (8, 8).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot42 and the item name 'construction materials' to remove the materials from the location.
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status after completing the task.
-    current step:
-        Use the grab_or_remove_item function with Robot42 and the item name 'construction materials' to remove the materials from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested the use of the 'grab_or_remove_item' function to remove 'construction materials' from a location using Robot42. The Controller is responsible for this function as it controls the robots and their interactions with items. Therefore, the Controller is the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot42 and the item name 'construction materials' to remove the materials from the location.", 'The construction materials have been successfully removed by Robot42.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status after completing the task.
-    current step:
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status after completing the task.
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested to use the 'robot_status_change' function with Robot42 to set its status to 'idle' after completing its task. The 'robot_status_change' function is a tool that is within the responsibility of the Controller. Therefore, the Controller should be the one to carry out this function.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status after completing the task.", 'The status of Robot42 has been changed to "idle" after completing the task.')
+   past steps: ("Use the select_known_robot_tool to verify that Robot23 is equipped with a 'front loader' tool property, as this is suitable for removing construction materials.", "The initial selected tool for Robot23 was a 'front loader,' which is appropriate for removing construction materials. However, Robot23 is not equipped with a 'front loader' but with a 'tow hook.' According to the list of items with associated tool properties, a 'tow hook' is also suitable for handling construction materials. Therefore, Robot23 with a 'tow hook' can still solve the task of removing construction materials.")
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot23 to location (8, 2).
+        Use the grab_or_remove_item function to remove the construction materials from location (8, 2).
+        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
+    current step:
+        Use the move_robot function to move Robot23 to location (8, 2).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to use the move_robot function to move a specific robot, Robot23, to a specified location, which is (8, 2). The Controller is responsible for controlling the robots with a set of tools that include the move_robot function. Therefore, the Controller is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot23 to location (8, 2).', 'Robot23 has been moved to the location (8, 2).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the construction materials from location (8, 2).
+        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
+    current step:
+        Use the grab_or_remove_item function to remove the construction materials from location (8, 2).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically asks to use the 'grab_or_remove_item' function to remove construction materials from a certain location. This function is within the Controller's set of tools, which makes the Controller the correct worker to act next and perform the current_step.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the construction materials from location (8, 2).', 'The construction materials have been removed from location (8, 2).')
+---
+replanner:
+    plan:
+        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
+    current step:
+        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The request is to use the 'robot_status_change' function to set the status of a specific robot (Robot23) to 'idle'. This function is within the Controller's set of tools, and the Controller is responsible for controlling the robots, including changing their status.
+---
+Controller:
+   past steps: ("Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.", "Robot23's status has been set to 'idle' after the completion of the construction materials removal task.")
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot42, equipped with a gripper tool property, has moved to location (8, 8), removed the construction materials, and is now set to idle status.
+        The task has been successfully completed. Robot23, equipped with a tow hook, has removed the construction materials from location (8, 2) and is now set to 'idle' status.
 ---
 </t>
         </is>
@@ -1016,72 +1016,73 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot24 to location (6, 10) and remove the tree branches.</t>
+          <t>Move Robot24 to location (11, 8) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot24 and the 'saw' tool property to ensure Robot24 is equipped to remove tree branches.
-        Use the move_robot function with Robot24 and the desired position (6, 10) to move Robot24 to the location of the tree branches.
-        Use the grab_or_remove_item function with Robot24 and the item name 'tree branches' to remove the tree branches from the location.
-        Use the robot_status_change function with Robot24 and the status 'idle' to set Robot24's status to idle after completing the task.
-    current step:
-       Use the select_known_robot_tool with Robot24 and the 'saw' tool property to ensure Robot24 is equipped to remove tree branches.
+        Use the select_known_robot_tool with Robot24 and the 'saw' tool property to verify if Robot24 is equipped to remove tree branches.
+        If Robot24 is not equipped with a 'saw', select a different robot using robot_selection_tool with the 'saw' tool property and the item position (11, 8).
+        Use the move_robot function with the appropriate robot name and the desired position (11, 8).
+        Use the grab_or_remove_item function with the robot name and 'tree branches' as the item name to remove the tree branches.
+        Set the robot's status to idle using the robot_status_change function with the robot name and 'idle' status.
+    current step:
+       Use the select_known_robot_tool with Robot24 and the 'saw' tool property to verify if Robot24 is equipped to remove tree branches.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies a particular robot, Robot24, and a desired tool property, 'saw', for a task. The Robot_selector should use the select_known_robot_tool to confirm whether Robot24 is equipped with the 'saw' tool property necessary for removing tree branches, as per the request.
+   reason: The Robot_selector should act next because the user has specified a particular robot, Robot24, and requires a check for a specific tool property, 'saw'. The select_known_robot_tool is designed to determine if the specified robot has the required tool property to complete the task, which in this case is removing tree branches.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot24 and the 'saw' tool property to ensure Robot24 is equipped to remove tree branches.", 'Robot24 with the tool property: saw has been selected to remove tree branches.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot24 and the desired position (6, 10) to move Robot24 to the location of the tree branches.
-        Use the grab_or_remove_item function with Robot24 and the item name 'tree branches' to remove the tree branches from the location.
-        Use the robot_status_change function with Robot24 and the status 'idle' to set Robot24's status to idle after completing the task.
-    current step:
-        Use the move_robot function with Robot24 and the desired position (6, 10) to move Robot24 to the location of the tree branches.
----
-supervisor:
-   next agent: Controller
-   reason: The user request explicitly mentions the use of the move_robot function to move Robot24 to a specific location. The Controller is responsible for controlling the robots and has the move_robot tool, which matches the user request.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot24 and the desired position (6, 10) to move Robot24 to the location of the tree branches.', 'Robot24 has been successfully moved to the location of the tree branches.')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot24 and the item name 'tree branches' to remove the tree branches from the location.
-        Use the robot_status_change function with Robot24 and the status 'idle' to set Robot24's status to idle after completing the task.
-    current step:
-        Use the grab_or_remove_item function with Robot24 and the item name 'tree branches' to remove the tree branches from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to use the function 'grab_or_remove_item' with a specific robot, Robot24, to remove an item, 'tree branches', from the location. The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' required to perform this task. Therefore, the Controller should act next to execute the user's request.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot24 and the item name 'tree branches' to remove the tree branches from the location.", 'The tree branches have been successfully removed by Robot24.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot24 and the status 'idle' to set Robot24's status to idle after completing the task.
-    current step:
-        Use the robot_status_change function with Robot24 and the status 'idle' to set Robot24's status to idle after completing the task.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a direct action involving the use of the 'robot_status_change' function, which is a tool that falls under the responsibilities of the Controller. Therefore, the Controller should be the worker to act next in order to change the status of Robot24 to 'idle' after the completion of its task.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot24 and the status 'idle' to set Robot24's status to idle after completing the task.", 'The status of Robot24 has been successfully changed to "idle."')
+   past steps: ("Use the select_known_robot_tool with Robot24 and the 'saw' tool property to verify if Robot24 is equipped to remove tree branches.", 'Robot24 is equipped with a saw and has been selected to remove the tree branches.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot24 and the desired position (11, 8).
+        Use the grab_or_remove_item function with Robot24 and 'tree branches' as the item name to remove the tree branches.
+        Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.
+    current step:
+        Use the move_robot function with Robot24 and the desired position (11, 8).
+---
+supervisor:
+   next agent: Controller
+   reason: The user's request is to use the 'move_robot' function to move a specific robot, Robot24, to a desired position (11, 8). This is a direct instruction involving the control of a robot's movement, which falls under the responsibilities of the Controller. The Controller has the 'move_robot' tool needed to execute this task.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot24 and the desired position (11, 8).', 'Robot24 has been successfully moved to the position (11, 8).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot24 and 'tree branches' as the item name to remove the tree branches.
+        Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.
+    current step:
+        Use the grab_or_remove_item function with Robot24 and 'tree branches' as the item name to remove the tree branches.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specifically requested the use of the 'grab_or_remove_item' function with 'Robot24' and 'tree branches' as the item name. The Controller is responsible for controlling the robots with a set of tools that includes 'grab_or_remove_item'. Since the robot name and item name are provided, the Controller is the appropriate worker to execute the function and remove the tree branches.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot24 and 'tree branches' as the item name to remove the tree branches.", 'Robot24 has successfully grabbed/removed the tree branches.')
+---
+replanner:
+    plan:
+        Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.
+    current step:
+        Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for using the 'robot_status_change' function to alter the status of a robot. Since the user request specifically asks to set Robot24's status to 'idle', the Controller is the appropriate worker to execute this function.
+---
+Controller:
+   past steps: ("Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.", "Robot24's status has been set to idle.")
 ---
 replanner:
     response:
-        The tree branches at location (6, 10) have been successfully removed by Robot24, which is now set to idle status. The task is complete.
+        The task has been successfully completed. Robot24, equipped with a saw, has removed the tree branches at location (11, 8). The robot's status is now set to idle.
 ---
 </t>
         </is>
@@ -1090,72 +1091,72 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (9, 4) and remove the screws.</t>
+          <t>Move Robot15 to location (3, 8) and remove the screws.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot15 and the screwdriver property to ensure Robot15 is equipped to remove screws.
-        Use the move_robot function with Robot15 and the desired position (9, 4) to move Robot15 to the location where the screws need to be removed.
-        Use the grab_or_remove_item function with Robot15 and the item_name 'screws' to remove the screws at the location.
-        Use the robot_status_change function with Robot15 and the status 'idle' to set Robot15's status to idle after the task is complete.
-    current step:
-       Use the select_known_robot_tool with Robot15 and the screwdriver property to ensure Robot15 is equipped to remove screws.
+        Use the select_known_robot_tool with Robot15 and screwdriver to ensure Robot15 is equipped with a tool capable of removing screws.
+        Use the move_robot function with Robot15 and the coordinates (3, 8) to move Robot15 to the desired location.
+        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
+    current step:
+       Use the select_known_robot_tool with Robot15 and screwdriver to ensure Robot15 is equipped with a tool capable of removing screws.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has requested to check if Robot15 is equipped with a screwdriver property to remove screws. The Robot_selector is responsible for selecting the correct robot and determining if the robot has the required tool property using the select_known_robot_tool. Therefore, the Robot_selector should act next to ensure Robot15 is properly equipped for the task at hand.
+   reason: The user request specifies the use of the select_known_robot_tool to check if Robot15 is equipped with a screwdriver. The Robot_selector is responsible for using the select_known_robot_tool, hence it should act next.
 ---
 Robot_selector:
-   past steps: ('Use the select_known_robot_tool with Robot15 and the screwdriver property to ensure Robot15 is equipped to remove screws.', 'Robot15 with the screwdriver property has been selected to ensure that it is equipped to remove screws.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot15 and the desired position (9, 4) to move Robot15 to the location where the screws need to be removed.
-        Use the grab_or_remove_item function with Robot15 and the item_name 'screws' to remove the screws at the location.
-        Use the robot_status_change function with Robot15 and the status 'idle' to set Robot15's status to idle after the task is complete.
-    current step:
-        Use the move_robot function with Robot15 and the desired position (9, 4) to move Robot15 to the location where the screws need to be removed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies an action that involves moving a robot to a certain position. The Controller is responsible for controlling robots and has the tool 'move_robot' which is required to move Robot15 to the desired position (9, 4). Therefore, the Controller is the suitable worker to act next to fulfill this request.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot15 and the desired position (9, 4) to move Robot15 to the location where the screws need to be removed.', 'Robot15 has been successfully moved to the location where the screws need to be removed.')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot15 and the item_name 'screws' to remove the screws at the location.
-        Use the robot_status_change function with Robot15 and the status 'idle' to set Robot15's status to idle after the task is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot15 and the item_name 'screws' to remove the screws at the location.
----
-supervisor:
-   next agent: Controller
-   reason: The task specifically requests the use of the 'grab_or_remove_item' function with a designated robot, Robot15, and an item, 'screws'. The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which matches the requirements of the task. Therefore, the Controller should act next to perform the current_step of removing the screws with Robot15.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot15 and the item_name 'screws' to remove the screws at the location.", 'The screws have been successfully removed by Robot15.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot15 and the status 'idle' to set Robot15's status to idle after the task is complete.
-    current step:
-        Use the robot_status_change function with Robot15 and the status 'idle' to set Robot15's status to idle after the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to use the tool 'robot_status_change' to set Robot15's status to 'idle', which is a function that the Controller is responsible for. Therefore, the Controller should act next to perform the current step of changing the status of the robot.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot15 and the status 'idle' to set Robot15's status to idle after the task is complete.", "Robot15's status has been successfully changed to idle.")
+   past steps: ('Use the select_known_robot_tool with Robot15 and screwdriver to ensure Robot15 is equipped with a tool capable of removing screws.', 'Robot15, equipped with a screwdriver, has been selected to remove screws.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot15 and the coordinates (3, 8) to move Robot15 to the desired location.
+        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
+    current step:
+        Use the move_robot function with Robot15 and the coordinates (3, 8) to move Robot15 to the desired location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot (Robot15) to a specific position (coordinates 3, 8). The 'move_robot' function falls under the Controller's tools, thus the Controller is the appropriate worker to perform the current step.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot15 and the coordinates (3, 8) to move Robot15 to the desired location.', 'Robot15 has been successfully moved to the desired position at coordinates (3, 8).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
+    current step:
+        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action 'grab_or_remove_item' which is a function controlled by the Controller. The robot name 'Robot15' and the item name 'screws' are provided, so the Controller can directly use the 'grab_or_remove_item' tool to remove the screws from the location where Robot15 is currently positioned.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.", 'Robot15 has successfully grabbed or removed the screws from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
+    current step:
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'robot_status_change' function to set the status of Robot15 to 'idle' after the task is completed. The 'Controller' is responsible for controlling the robots with a set of tools, which includes the 'robot_status_change' function. Therefore, the Controller is the appropriate worker to carry out this function as per the user's request.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.", "The status of Robot15 has been successfully changed to 'idle'.")
 ---
 replanner:
     response:
-        The task has been completed successfully. Robot15 equipped with a screwdriver has moved to location (9, 4), removed the screws, and is now set to idle status.
+        Robot15, equipped with a screwdriver, has successfully moved to location (3, 8) and removed the screws. The robot's status has been set to 'idle' after the completion of the task.
 ---
 </t>
         </is>

--- a/Results/Raw_output/output_Easy_react.xlsx
+++ b/Results/Raw_output/output_Easy_react.xlsx
@@ -431,65 +431,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Select Robot32 using the select_known_robot_tool and verify it has the gripper tool property to remove the toolkit.
-        Move Robot32 to location (2, 9) using the move_robot tool.
-        Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.
-        Change Robot32 status to idle using the robot_status_change tool.
-    current step:
-       Select Robot32 using the select_known_robot_tool and verify it has the gripper tool property to remove the toolkit.
+        Use the select_known_robot_tool to verify that Robot32 is equipped with a gripper, which is required to pick up the toolkit.
+        Use the move_robot function to move Robot32 to the desired position at coordinates (2, 9).
+        Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.
+        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
+    current step:
+       Use the select_known_robot_tool to verify that Robot32 is equipped with a gripper, which is required to pick up the toolkit.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The task requires verifying if a specific robot (Robot32) has the necessary tool property (gripper) to perform a task (remove the toolkit). The Robot_selector has the select_known_robot_tool which is used to determine if the specified robot is equipped with a tool property capable of solving the objective. Therefore, the Robot_selector is the appropriate worker to act next.
+   reason: The user has requested to verify whether Robot32 is equipped with a gripper necessary for picking up an item. The Robot_selector is responsible for determining if a specified robot has the required tool property to solve the objective. The select_known_robot_tool within the Robot_selector's tools is designed for this exact purpose.
 ---
 Robot_selector:
-   past steps: ('Select Robot32 using the select_known_robot_tool and verify it has the gripper tool property to remove the toolkit.', 'Robot32 has been successfully selected and verified to have the gripper tool property to remove the toolkit.')
----
-replanner:
-    plan:
-        Move Robot32 to location (2, 9) using the move_robot tool.
-        Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.
-        Change Robot32 status to idle using the robot_status_change tool.
-    current step:
-        Move Robot32 to location (2, 9) using the move_robot tool.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a particular robot (Robot32) to be moved to a specific location (2, 9). The Controller is responsible for controlling the robots, which includes moving them to designated positions using the move_robot tool. Since the robot is already specified, there is no need for the Robot_selector to act. Therefore, the Controller is the correct worker to route the current_step to in order to execute the move_robot command.
----
-Controller:
-   past steps: ('Move Robot32 to location (2, 9) using the move_robot tool.', 'Robot32 has been successfully moved to the desired position (2, 9).')
----
-replanner:
-    plan:
-        Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.
-        Change Robot32 status to idle using the robot_status_change tool.
-    current step:
-        Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies an action (removing an item) and the location of the item. Since the Controller is responsible for actions directly controlling the robots, such as using the 'grab_or_remove_item' tool, the Controller is the appropriate worker to act next to execute this task.
----
-Controller:
-   past steps: ('Remove the toolkit from location (2, 9) using the grab_or_remove_item tool.', 'The toolkit from location (2, 9) has been successfully removed.')
----
-replanner:
-    plan:
-        Change Robot32 status to idle using the robot_status_change tool.
-    current step:
-        Change Robot32 status to idle using the robot_status_change tool.
----
-supervisor:
-   next agent: Controller
-   reason: The task requires using the 'robot_status_change' tool to change the status of Robot32 to idle. The Controller is responsible for controlling the robots with a set of tools, which includes the 'robot_status_change' tool.
----
-Controller:
-   past steps: ('Change Robot32 status to idle using the robot_status_change tool.', "Robot32's status has been changed to idle.")
+   past steps: ('Use the select_known_robot_tool to verify that Robot32 is equipped with a gripper, which is required to pick up the toolkit.', 'Robot32 is equipped with a gripper and has been selected to pick up the toolkit.')
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot32 to the desired position at coordinates (2, 9).
+        Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.
+        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
+    current step:
+        Use the move_robot function to move Robot32 to the desired position at coordinates (2, 9).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to move a specific robot, Robot32, to a given position with coordinates (2, 9). This action falls under the responsibility of the Controller, who is equipped with the tool 'move_robot' which is used to move a selected robot to a desired position.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot32 to the desired position at coordinates (2, 9).', 'Robot32 has been successfully moved to the position with coordinates (2, 9).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.
+        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
+    current step:
+        Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action of removing an item ('toolkit') from a robot's location (Robot32). The Controller is responsible for such actions, using the 'grab_or_remove_item' tool to remove items from a robot's location. Since the specific robot is mentioned, there is no need for the Robot_selector to intervene.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.', 'The toolkit has been removed from the location where Robot32 is positioned.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
+    current step:
+        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling robots, including changing their status. Since the task is to set Robot32's status to idle after the toolkit has been successfully removed, the Controller should use the robot_status_change function to accomplish this.
+---
+Controller:
+   past steps: ("Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.", 'The status of Robot32 has been successfully changed to idle after the toolkit was removed.')
 ---
 replanner:
     response:
-        The toolkit has been successfully removed from location (2, 9) by Robot32 equipped with the gripper tool property. Robot32's status has been set to idle, and the task is now complete.
+        The objective has been completed. Robot32, equipped with a gripper, has moved to location (2, 9) and removed the toolkit. Robot32's status is now set to idle.
 ---
 </t>
         </is>
@@ -505,65 +505,99 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use select_known_robot_tool with Robot6 and 'mop' to check if the robot is equipped with a tool property capable of cleaning liquid spills.
-        Use move_robot with 'Robot6' and the position (5, 4) to move the robot to the location of the liquid spill.
-        Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.
-        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
-    current step:
-       Use select_known_robot_tool with Robot6 and 'mop' to check if the robot is equipped with a tool property capable of cleaning liquid spills.
+        Use the select_known_robot_tool to check if Robot6 is equipped with a tool property capable of cleaning a liquid spill, such as a mop or vacuum.
+        If Robot6 is not equipped with the proper tool, use robot_selection_tool to find a robot that is equipped with a mop or vacuum and can reach location (5, 4).
+        Use the move_robot function to move Robot6 or the selected robot to location (5, 4).
+        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
+        Use the robot_status_change function to set Robot6 or the selected robot's status to idle after the liquid spill is removed.
+    current step:
+       Use the select_known_robot_tool to check if Robot6 is equipped with a tool property capable of cleaning a liquid spill, such as a mop or vacuum.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies a certain robot (Robot6) and a required tool property ('mop') to check if the robot can perform a specific task (cleaning liquid spills). The Robot_selector is responsible for verifying if the specified robot is equipped with the necessary tool property to accomplish the task, using the select_known_robot_tool. Therefore, the Robot_selector should act next to carry out this verification.
+   reason: The Robot_selector should act next because the user has requested to verify if a specific robot, Robot6, has the appropriate tool property for cleaning a liquid spill. The select_known_robot_tool is designed for this purpose, to determine if the specified robot is equipped to handle the given task.
 ---
 Robot_selector:
-   past steps: ("Use select_known_robot_tool with Robot6 and 'mop' to check if the robot is equipped with a tool property capable of cleaning liquid spills.", 'Robot6, equipped with a mop, has been selected to clean liquid spills.')
----
-replanner:
-    plan:
-        Use move_robot with 'Robot6' and the position (5, 4) to move the robot to the location of the liquid spill.
-        Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.
-        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
-    current step:
-        Use move_robot with 'Robot6' and the position (5, 4) to move the robot to the location of the liquid spill.
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested to use the 'move_robot' tool with a specified robot 'Robot6' and a given position (5, 4) to move the robot to the location of the liquid spill. Since the 'move_robot' tool is under the Controller's set of tools and the robot is already specified, the Controller is the correct worker to act next to perform the current_step of moving the robot to the desired location.
----
-Controller:
-   past steps: ("Use move_robot with 'Robot6' and the position (5, 4) to move the robot to the location of the liquid spill.", 'Robot6 has been moved to the position (5, 4).')
----
-replanner:
-    plan:
-        Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.
-        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
-    current step:
-        Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the robot ('Robot6') and the action to be taken ('grab_or_remove_item' with 'liquid spill'). Since the robot and the action are clearly defined, the Controller is the appropriate worker to execute the command using the provided tools.
----
-Controller:
-   past steps: ("Use grab_or_remove_item with 'Robot6' and 'liquid spill' to clean up the liquid spill.", 'Robot6 has successfully handled the liquid spill.')
----
-replanner:
-    plan:
-        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
-    current step:
-        Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots with a set of tools, including the robot_status_change tool. Since the user request specifically mentions using the robot_status_change tool to set the status of 'Robot6' to 'idle' after the task is complete, the Controller is the correct worker to perform this current_step.
----
-Controller:
-   past steps: ("Use robot_status_change with 'Robot6' and 'idle' to set the robot status once the task is complete.", "Robot6's status has been successfully changed to idle.")
+   past steps: ('Use the select_known_robot_tool to check if Robot6 is equipped with a tool property capable of cleaning a liquid spill, such as a mop or vacuum.', 'Robot6, which is equipped with a mop, has been selected to clean the liquid spill.')
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot6 to location (5, 4).
+        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
+        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
+    current step:
+        Use the move_robot function to move Robot6 to location (5, 4).
+---
+supervisor:
+   next agent: Controller
+   reason: The user has requested the specific action of moving a robot (Robot6) to a given position (5, 4). This task falls under the responsibility of the Controller, who has the tool 'move_robot' necessary to execute this action.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot6 to location (5, 4).', 'Robot6 has been successfully moved to the location (5, 4).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
+        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
+    current step:
+        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
+---
+supervisor:
+   next agent: Controller
+   reason: The user has requested the use of the 'grab_or_remove_item' function which is a tool controlled by the Controller. Since the specific task is to remove a liquid spill from a specified location, the Controller is responsible for commanding the robots to perform this action.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).', 'The liquid spill at location (5, 4) has been removed.')
+---
+replanner:
+    plan:
+        Robot6, which is equipped with a mop, has been selected to clean the liquid spill.
+        Use the move_robot function to move Robot6 to location (5, 4).
+        Robot6 has been successfully moved to the location (5, 4).
+        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
+        The liquid spill at location (5, 4) has been removed.
+        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
+    current step:
+        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool required, which is the robot_status_change function. Since the request is to set Robot6's status to idle after completing a task (removing the liquid spill), the Controller is the appropriate worker to perform this action.
+---
+Controller:
+   past steps: ('Robot6, which is equipped with a mop, has been selected to clean the liquid spill.', 'Robot6 is now cleaning the liquid spill at position (5, 6).')
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot6 to location (5, 4).
+        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
+        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
+    current step:
+        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to use the 'robot_status_change' function to set Robot6's status to idle, which is a function within the Controller's set of tools. Therefore, the Controller is the correct worker to perform this current_step.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot6 to location (5, 4).', 'Robot6 has been moved to the desired position (5, 4).')
+---
+replanner:
+    plan:
+        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
+    current step:
+        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'robot_status_change' function, which is a tool that the Controller is responsible for. Since the action involves changing the status of a specific robot, Robot6, to 'idle' after completing a task, the Controller is the appropriate worker to carry out this step.
+---
+Controller:
+   past steps: ("Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.", "Robot6's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        The task is complete. Robot6 equipped with a mop has successfully cleaned the liquid spill at location (5, 4) and is now set to idle status.
+        The liquid spill at location (5, 4) has been successfully removed by Robot6 equipped with a mop, and its status has been set to idle. The task is complete.
 ---
 </t>
         </is>
@@ -579,65 +613,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool to verify if Robot29 is equipped with a tool property capable of solving the objective, such as a front loader, to remove large debris.
-        Use the move_robot function to move Robot29 to the desired position at (5, 12).
-        Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).
-        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
-    current step:
-       Use the select_known_robot_tool to verify if Robot29 is equipped with a tool property capable of solving the objective, such as a front loader, to remove large debris.
+        Use the select_known_robot_tool with Robot29 and a 'front loader' as the desired_robot_tool_property to check if Robot29 is equipped to remove large debris.
+        Use the move_robot tool with Robot29 and the coordinates (5, 12) to move Robot29 to the desired location.
+        Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.
+        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
+    current step:
+       Use the select_known_robot_tool with Robot29 and a 'front loader' as the desired_robot_tool_property to check if Robot29 is equipped to remove large debris.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector should be utilized to verify if Robot29 has the necessary tool property, such as a front loader, for the specific objective of removing large debris. The select_known_robot_tool is designed for this purpose when a specific robot is mentioned in the objective.
+   reason: The user is requesting to verify if Robot29 is equipped with a 'front loader' tool property, which is necessary to remove large debris. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped to perform a specific task, using tools such as the 'select_known_robot_tool'. Therefore, the Robot_selector should act next to use the 'select_known_robot_tool' with Robot29 and a 'front loader' as the desired_robot_tool_property to check its capabilities.
 ---
 Robot_selector:
-   past steps: ('Use the select_known_robot_tool to verify if Robot29 is equipped with a tool property capable of solving the objective, such as a front loader, to remove large debris.', 'Robot29 is equipped with a front loader and has been selected to remove the large debris.')
----
-replanner:
-    plan:
-        Use the move_robot function to move Robot29 to the desired position at (5, 12).
-        Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).
-        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
-    current step:
-        Use the move_robot function to move Robot29 to the desired position at (5, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically involves moving a robot, which is a task that falls under the responsibilities of the Controller. The Controller has the tool 'move_robot' which is designed to move the selected robot to a given position. Since the robot name 'Robot29' and the desired position coordinates (5, 12) are provided, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot29 to the desired position at (5, 12).', 'Robot29 has been successfully moved to the desired position at (5, 12).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).
-        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
-    current step:
-        Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to be taken (grab_or_remove_item) and the robot to execute it (Robot29), so the Controller is the appropriate worker to carry out this task as it has the tools to control the robots and perform the required action.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to have Robot29 remove the large debris from location (5, 12).', 'Robot29 has successfully removed the large debris.')
----
-replanner:
-    plan:
-        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
-    current step:
-        Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots, including changing their status. Since the request is to use the robot_status_change function to set Robot29's status to idle after completing a task, the Controller is the appropriate worker to carry out this action.
----
-Controller:
-   past steps: ("Use the robot_status_change function to set Robot29's status to idle after the removal of the large debris is complete.", "Robot29's status has been successfully changed to idle.")
+   past steps: ("Use the select_known_robot_tool with Robot29 and a 'front loader' as the desired_robot_tool_property to check if Robot29 is equipped to remove large debris.", 'Robot29 is equipped with a front loader and has been selected to solve the task of removing large debris.')
+---
+replanner:
+    plan:
+        Use the move_robot tool with Robot29 and the coordinates (5, 12) to move Robot29 to the desired location.
+        Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.
+        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
+    current step:
+        Use the move_robot tool with Robot29 and the coordinates (5, 12) to move Robot29 to the desired location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to use the 'move_robot' tool, which is one of the tools controlled by the Controller. The specific request is to move Robot29 to the coordinates (5, 12), which falls directly under the Controller's responsibility of controlling the robots and their movements.
+---
+Controller:
+   past steps: ('Use the move_robot tool with Robot29 and the coordinates (5, 12) to move Robot29 to the desired location.', 'Robot29 has been successfully moved to the position (5, 12).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.
+        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
+    current step:
+        Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action of using the grab_or_remove_item tool with a particular robot, Robot29, and a specific item, 'large debris'. This falls under the responsibility of the Controller, who controls the robots and has access to the grab_or_remove_item tool.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.", 'Robot29 has successfully grabbed or removed the large debris from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
+    current step:
+        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
+---
+supervisor:
+   next agent: Controller
+   reason: The task requires using the 'robot_status_change' tool which is one of the tools that the Controller is responsible for. The Controller can use this tool to change the status of Robot29 to 'idle' after it has completed its task.
+---
+Controller:
+   past steps: ("Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.", "Robot29's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        Robot29 equipped with a front loader has successfully moved to location (5, 12) and removed the large debris. The robot's status is now set to idle, completing the objective.
+        All steps of the task have been successfully completed. Robot29, equipped with a front loader, has moved to location (5, 12), removed the large debris, and is now set to idle status.
 ---
 </t>
         </is>
@@ -653,65 +687,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the 'select_known_robot_tool' tool with Robot48 and the tool property 'vacuum' to confirm that Robot48 is equipped for dust removal.
-        Use the 'move_robot' tool with Robot48 to move it to location (6, 6).
-        Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6).
-        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
-    current step:
-       Use the 'select_known_robot_tool' tool with Robot48 and the tool property 'vacuum' to confirm that Robot48 is equipped for dust removal.
+        Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.
+        Use move_robot with Robot48 and the desired position (6, 6) to move Robot48 to the location.
+        Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.
+        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
+    current step:
+       Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies a robot (Robot48) and a desired tool property ('vacuum') necessary for a task (dust removal). As per the definition, the 'select_known_robot_tool' should be used to confirm if the specified robot is equipped with the required tool property. The Robot_selector is responsible for using the 'select_known_robot_tool', hence it should be the next to act.
+   reason: The user request specifies a need to ensure that Robot48 is equipped with a 'vacuum' tool property to remove dust. The Robot_selector is responsible for selecting the correct robot and verifying if it has the necessary tool property. The 'select_known_robot_tool' should be used to determine if Robot48 has the 'vacuum' capability as it is explicitly mentioned in the objective.
 ---
 Robot_selector:
-   past steps: ("Use the 'select_known_robot_tool' tool with Robot48 and the tool property 'vacuum' to confirm that Robot48 is equipped for dust removal.", "The initial selected tool for Robot48 was 'vacuum' for the task of dust removal. However, Robot48 is not equipped with a vacuum. The alternative tool property Robot48 has is a 'broom'. According to the list of items with associated tool properties, a broom can also be used for dust removal. Therefore, Robot48 can still solve the task using the broom to remove dust.")
----
-replanner:
-    plan:
-        Use the 'move_robot' tool with Robot48 to move it to location (6, 6).
-        Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6) using the broom.
-        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
-    current step:
-        Use the 'move_robot' tool with Robot48 to move it to location (6, 6).
----
-supervisor:
-   next agent: Controller
-   reason: The user has specifically requested to use the 'move_robot' tool with Robot48 to move it to a particular location (6, 6). The Controller is responsible for controlling the robots with a set of tools which includes 'move_robot'. Therefore, the Controller is the appropriate worker to act next to carry out this task.
----
-Controller:
-   past steps: ("Use the 'move_robot' tool with Robot48 to move it to location (6, 6).", 'Robot48 has been successfully moved to position (6, 6).')
----
-replanner:
-    plan:
-        Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6) using the broom.
-        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
-    current step:
-        Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6) using the broom.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving a particular robot, Robot48, to remove an item, which is dust in this case, at a specific location using a tool, which is a broom. Since the robot is already specified, there is no need for the Robot_selector. The Controller is responsible for controlling robots to perform actions such as 'grab_or_remove_item' which matches the user request. Therefore, the Controller should act next to execute the 'grab_or_remove_item' tool with Robot48.
----
-Controller:
-   past steps: ("Use the 'grab_or_remove_item' tool with Robot48 to remove the dust at location (6, 6) using the broom.", 'Robot48 has successfully removed the dust at location (6, 6) using the broom.')
----
-replanner:
-    plan:
-        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
-    current step:
-        Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The 'robot_status_change' tool is within the Controller's set of tools, and the user request is to use this specific tool to change Robot48's status to 'idle' after the task is complete. Therefore, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the 'robot_status_change' tool to set Robot48's status to 'idle' after the task is complete.", "Robot48's status has been updated to 'idle' after completing the task.")
+   past steps: ("Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.", 'The initial selected tool was "vacuum," which is appropriate for removing dust according to the list of items with associated tool properties. However, Robot48 does not have a vacuum tool property but has a broom instead. According to the same list, a broom can also be used for dust removal. Therefore, Robot48 with the broom tool property can still solve the task of removing dust.')
+---
+replanner:
+    plan:
+        Use move_robot with Robot48 and the desired position (6, 6) to move Robot48 to the location.
+        Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.
+        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
+    current step:
+        Use move_robot with Robot48 and the desired position (6, 6) to move Robot48 to the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request clearly specifies the action that needs to be taken, which is to move a specific robot, Robot48, to a desired position (6, 6). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is required for this task. Therefore, the Controller is the appropriate worker to carry out this step.
+---
+Controller:
+   past steps: ('Use move_robot with Robot48 and the desired position (6, 6) to move Robot48 to the location.', 'Robot48 has been successfully moved to the position (6, 6).')
+---
+replanner:
+    plan:
+        Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.
+        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
+    current step:
+        Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The current_step requires the use of 'grab_or_remove_item' which is a tool controlled by the Controller. The robot (Robot48) and the item ('dust') are both specified, indicating that the Controller should act next to perform the item removal task.
+---
+Controller:
+   past steps: ("Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.", 'Robot48 has successfully grabbed/removed the dust.')
+---
+replanner:
+    plan:
+        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
+    current step:
+        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The 'robot_status_change' tool is within the Controller's set of tools, and since the objective is to set Robot48's status to 'idle' after completing a task, the Controller is the appropriate worker to perform this action.
+---
+Controller:
+   past steps: ("Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.", "The status of Robot48 has been changed to 'idle' following the completion of the dust removal task.")
 ---
 replanner:
     response:
-        Robot48 was successfully moved to location (6, 6) and has removed the dust using its broom. The robot's status is now set to idle, and the task is complete.
+        Robot48 has successfully removed the dust at location (6, 6) and is now set to idle status. The task is complete.
 ---
 </t>
         </is>
@@ -727,65 +761,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with 'Robot41' as robot_name and 'lawnmower' as desired_robot_tool_property to ensure Robot41 is equipped to remove grass.
-        Use the move_robot tool with 'Robot41' as robot_name and (1, 8) as the desired_position to move Robot41 to the correct location.
-        Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).
-        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
-    current step:
-       Use the select_known_robot_tool with 'Robot41' as robot_name and 'lawnmower' as desired_robot_tool_property to ensure Robot41 is equipped to remove grass.
+        Use the select_known_robot_tool with Robot41 and the 'lawnmower' tool property to verify that Robot41 is equipped with a lawnmower capable of removing grass.
+        Use the move_robot function with Robot41 and the desired position (1, 8) to move Robot41 to the correct location.
+        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).
+        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
+    current step:
+       Use the select_known_robot_tool with Robot41 and the 'lawnmower' tool property to verify that Robot41 is equipped with a lawnmower capable of removing grass.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has requested to use the 'select_known_robot_tool' to confirm if 'Robot41' has the 'lawnmower' tool property necessary for removing grass. The Robot_selector is responsible for determining if a specified robot is equipped with the desired tool property to complete a task.
+   reason: The user request specifies the use of the 'select_known_robot_tool' to verify if Robot41 is equipped with a 'lawnmower' tool property. This task falls under the Robot_selector's responsibility, as they have the appropriate tool to determine if the specified robot (Robot41) has the required tool property to complete the objective.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with 'Robot41' as robot_name and 'lawnmower' as desired_robot_tool_property to ensure Robot41 is equipped to remove grass.", 'Robot41, equipped with a lawnmower, has been selected to remove the grass.')
----
-replanner:
-    plan:
-        Use the move_robot tool with 'Robot41' as robot_name and (1, 8) as the desired_position to move Robot41 to the correct location.
-        Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).
-        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
-    current step:
-        Use the move_robot tool with 'Robot41' as robot_name and (1, 8) as the desired_position to move Robot41 to the correct location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically asks to use the 'move_robot' tool with 'Robot41' as the robot_name and coordinates (1, 8) as the desired_position. The 'Controller' is responsible for controlling the robots and has access to the 'move_robot' tool which can move a selected robot to a given position.
----
-Controller:
-   past steps: ("Use the move_robot tool with 'Robot41' as robot_name and (1, 8) as the desired_position to move Robot41 to the correct location.", 'Robot41 has been successfully moved to the position (1, 8).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).
-        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
-    current step:
-        Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots using specific tools. Since the user request involves using the 'grab_or_remove_item' tool with a specified robot name ('Robot41') and an item name ('grass'), the Controller is the correct worker to perform this action as it falls within their set of tools. There is no need for the Robot_selector as the robot is already specified, and the request is not a generic question that would require the misc_agent.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item tool with 'Robot41' as robot_name and 'grass' as the item_name to remove the grass at location (1, 8).", 'Robot41 has grabbed/removed the grass and has been moved to the location (1, 8).')
----
-replanner:
-    plan:
-        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
-    current step:
-        Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots, which includes using the robot_status_change tool to set a robot's status. Since the task is to set Robot41's status to 'idle' after completing its task, the Controller is the appropriate worker to perform this action.
----
-Controller:
-   past steps: ("Use the robot_status_change tool with 'Robot41' as robot_name and 'idle' as status to set Robot41's status after completing the task.", "Robot41's status has been changed to idle.")
+   past steps: ("Use the select_known_robot_tool with Robot41 and the 'lawnmower' tool property to verify that Robot41 is equipped with a lawnmower capable of removing grass.", 'Robot41 is equipped with a lawnmower and has been selected to remove grass.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot41 and the desired position (1, 8) to move Robot41 to the correct location.
+        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).
+        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
+    current step:
+        Use the move_robot function with Robot41 and the desired position (1, 8) to move Robot41 to the correct location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically mentions the use of the 'move_robot' function with a designated robot (Robot41) and a desired position ((1, 8)). This function falls under the responsibility of the Controller who controls the robots with a set of tools, including 'move_robot'. Therefore, the Controller is the appropriate worker to perform the current step of moving Robot41 to the specified location.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot41 and the desired position (1, 8) to move Robot41 to the correct location.', 'Robot41 has been successfully moved to the desired position (1, 8).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).
+        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots with a set of tools, which includes the 'grab_or_remove_item' function. Since the user request specifies the use of this function with Robot41 to remove an item named 'grass' from a location, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).", 'Robot41 has grabbed/removed the grass and has been moved to the location (1, 8).')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
+    current step:
+        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot41's status to 'idle' after the completion of its task.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.", "Robot41's status has been changed to idle after completing the removal of the grass.")
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot41, equipped with a lawnmower, has moved to location (1, 8) and removed the grass. The robot's status is now set to idle.
+        The task has been successfully completed. Robot41, equipped with a lawnmower, has moved to location (1, 8), removed the grass, and is now set to idle status.
 ---
 </t>
         </is>
@@ -801,65 +835,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Select Robot10 using the select_known_robot_tool and verify it has a gripper tool property capable of removing small debris.
-        Move Robot10 to location (9, 5) using the move_robot tool.
-        Remove the small debris using the grab_or_remove_item tool with Robot10.
-        Change Robot10's status to idle using the robot_status_change tool.
-    current step:
-       Select Robot10 using the select_known_robot_tool and verify it has a gripper tool property capable of removing small debris.
+        Use the select_known_robot_tool function to verify if Robot10 is equipped with a tool property capable of removing small debris. Example tool properties for this task could be vacuum or broom.
+        Use the move_robot function to move Robot10 to location (9, 5).
+        Use the grab_or_remove_item function to remove the small debris from location (9, 5).
+        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
+    current step:
+       Use the select_known_robot_tool function to verify if Robot10 is equipped with a tool property capable of removing small debris. Example tool properties for this task could be vacuum or broom.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies a particular robot (Robot10) and requires verification of its capability (having a gripper tool property capable of removing small debris). The Robot_selector is the appropriate worker to use the select_known_robot_tool to determine if Robot10 is equipped with the necessary tool property to fulfill the objective.
+   reason: The Robot_selector should be used next because the user request involves verifying if a specific robot, Robot10, has the necessary tool property to complete a task, which in this case is removing small debris. The select_known_robot_tool function is specifically designed for this purpose, to determine if a known robot is equipped with a tool property capable of solving the objective.
 ---
 Robot_selector:
-   past steps: ('Select Robot10 using the select_known_robot_tool and verify it has a gripper tool property capable of removing small debris.', 'The initial selected tool for Robot10 was a gripper, which is suited for removing small debris. However, Robot10 is equipped with a vacuum tool property. According to the list of items with associated tool properties, a vacuum can also be used for small debris. Therefore, Robot10 with the vacuum tool property can still solve the task of removing small debris.')
----
-replanner:
-    plan:
-        Move Robot10 to location (9, 5) using the move_robot tool.
-        Remove the small debris using the grab_or_remove_item tool with Robot10.
-        Change Robot10's status to idle using the robot_status_change tool.
-    current step:
-        Move Robot10 to location (9, 5) using the move_robot tool.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action of moving a specific robot, named Robot10, to a designated location (9, 5). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is used to move a selected robot to a given position. Since the robot's name and the desired position are provided, the Controller is the appropriate worker to carry out this task using the 'move_robot' tool.
----
-Controller:
-   past steps: ('Move Robot10 to location (9, 5) using the move_robot tool.', 'Robot10 has been successfully moved to the desired position (9, 5).')
----
-replanner:
-    plan:
-        Remove the small debris using the grab_or_remove_item tool with Robot10.
-        Change Robot10's status to idle using the robot_status_change tool.
-    current step:
-        Remove the small debris using the grab_or_remove_item tool with Robot10.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies both the action to be performed (remove small debris) and the robot to do it (Robot10). Since the Controller is responsible for controlling the robots and the specified tool to use is 'grab_or_remove_item', which is one of the Controller's tools, the Controller is the correct worker to route the current_step to in order to execute the task.
----
-Controller:
-   past steps: ('Remove the small debris using the grab_or_remove_item tool with Robot10.', 'Robot10 has successfully grabbed/removed the small debris.')
----
-replanner:
-    plan:
-        Change Robot10's status to idle using the robot_status_change tool.
-    current step:
-        Change Robot10's status to idle using the robot_status_change tool.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots, which includes changing their status using the robot_status_change tool. The current request is to change Robot10's status to idle, which falls under the Controller's set of tools.
----
-Controller:
-   past steps: ("Change Robot10's status to idle using the robot_status_change tool.", "Robot10's status has been changed to idle.")
+   past steps: ('Use the select_known_robot_tool function to verify if Robot10 is equipped with a tool property capable of removing small debris. Example tool properties for this task could be vacuum or broom.', 'Robot10, equipped with a vacuum tool, has been selected to remove small debris.')
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot10 to location (9, 5).
+        Use the grab_or_remove_item function to remove the small debris from location (9, 5).
+        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
+    current step:
+        Use the move_robot function to move Robot10 to location (9, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified the robot (Robot10) and the desired action (move to location (9, 5)). Since the Controller is responsible for controlling robots and has the tool 'move_robot' which is needed to move a specified robot to a given position, the Controller is the correct worker to carry out this action.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot10 to location (9, 5).', 'Robot10 has been successfully moved to the location (9, 5).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the small debris from location (9, 5).
+        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
+    current step:
+        Use the grab_or_remove_item function to remove the small debris from location (9, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action of removing an item, which is a function that falls under the responsibilities of the Controller. The grab_or_remove_item tool is specifically designed for this task and the Controller is the worker equipped with this tool.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the small debris from location (9, 5).', 'The small debris at location (9, 5) has been removed.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
+    current step:
+        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request involves using a specific control function, 'robot_status_change', which is within the Controller's set of tools. The Controller is responsible for changing the robot's status, and since the objective is directly related to this function, the Controller is the appropriate worker to act next.
+---
+Controller:
+   past steps: ("Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.", 'The status of Robot10 has been changed to idle.')
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot10, equipped with a vacuum tool property, has moved to location (9, 5) and removed the small debris. Robot10's status is now set to idle.
+        The task is complete. Robot10, equipped with a vacuum tool, successfully moved to location (9, 5), removed the small debris, and is now set to idle status.
 ---
 </t>
         </is>
@@ -875,65 +909,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to ensure Robot13 is equipped to remove the vehicle.
-        Move Robot13 to location (10, 10) using the move_robot tool with the parameters 'Robot13' as the robot_name and '(10, 10)' as the desired_position.
-        Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.
-        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
-    current step:
-       Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to ensure Robot13 is equipped to remove the vehicle.
+        Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to verify if Robot13 is equipped with a tow hook capable of removing the vehicle.
+        Use the move_robot function with 'Robot13' and the desired position '(10, 10)' to move Robot13 to the specified location.
+        Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).
+        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
+    current step:
+       Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to verify if Robot13 is equipped with a tow hook capable of removing the vehicle.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies that Robot13 should be checked for a specific tool property ('tow hook') to remove the vehicle. The Robot_selector is the worker equipped with the select_known_robot_tool that can be used to confirm if Robot13 has the necessary tool property to accomplish the task.
+   reason: The user request clearly asks to verify if a specific robot, Robot13, is equipped with a particular tool property, which is a 'tow hook' capable of removing a vehicle. The Robot_selector is responsible for such tasks with the use of the 'select_known_robot_tool' to determine if the specified robot has the necessary tool property to complete the objective.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to ensure Robot13 is equipped to remove the vehicle.", 'Robot13, equipped with a tow hook, has been selected to remove the vehicle.')
----
-replanner:
-    plan:
-        Move Robot13 to location (10, 10) using the move_robot tool with the parameters 'Robot13' as the robot_name and '(10, 10)' as the desired_position.
-        Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.
-        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
-    current step:
-        Move Robot13 to location (10, 10) using the move_robot tool with the parameters 'Robot13' as the robot_name and '(10, 10)' as the desired_position.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to move a specified robot (Robot13) to a specific location (10, 10). The Controller is responsible for controlling the robots with a set of tools, including the 'move_robot' tool which is used to move a selected robot to a given position. Since the robot name and the desired position are provided, the Controller is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ("Move Robot13 to location (10, 10) using the move_robot tool with the parameters 'Robot13' as the robot_name and '(10, 10)' as the desired_position.", 'Robot13 has been successfully moved to the location (10, 10).')
----
-replanner:
-    plan:
-        Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.
-        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
-    current step:
-        Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of 'grab_or_remove_item' tool with 'Robot13' as the robot_name and 'vehicle' as the item_name. Since the Controller is responsible for controlling the robots with a set of tools which includes 'grab_or_remove_item', the Controller is the appropriate worker to perform the current_step of removing the vehicle using the specified robot.
----
-Controller:
-   past steps: ("Remove the vehicle using the grab_or_remove_item tool with the parameters 'Robot13' as the robot_name and 'vehicle' as the item_name.", 'The vehicle has been successfully grabbed/removed by Robot13.')
----
-replanner:
-    plan:
-        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
-    current step:
-        Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots, including changing their status with the robot_status_change tool. Since the task is to change Robot13's status to idle, the Controller is the appropriate worker to perform this action.
----
-Controller:
-   past steps: ("Change Robot13's status to idle using the robot_status_change tool with the parameters 'Robot13' as the robot_name and 'idle' as the status.", "Robot13's status has been successfully changed to idle.")
+   past steps: ("Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to verify if Robot13 is equipped with a tow hook capable of removing the vehicle.", 'Robot13 is equipped with a tow hook and has been selected to remove the vehicle.')
+---
+replanner:
+    plan:
+        Use the move_robot function with 'Robot13' and the desired position '(10, 10)' to move Robot13 to the specified location.
+        Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).
+        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
+    current step:
+        Use the move_robot function with 'Robot13' and the desired position '(10, 10)' to move Robot13 to the specified location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specifically requested to use the 'move_robot' function with 'Robot13' and a desired position of '(10, 10)'. The Controller is responsible for controlling the robots with a set of tools including 'move_robot'. Therefore, the Controller is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ("Use the move_robot function with 'Robot13' and the desired position '(10, 10)' to move Robot13 to the specified location.", 'Robot13 has been successfully moved to the desired position (10, 10).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).
+        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
+    current step:
+        Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).
+---
+supervisor:
+   next agent: Controller
+   reason: Since the specific robot ('Robot13') and the item ('vehicle') to be removed are both specified, the Controller is the appropriate worker to carry out the task. The Controller has the 'grab_or_remove_item' tool which is needed to remove the vehicle from the robot's location.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).", 'Robot13 has successfully grabbed/removed the vehicle and moved to the location (10, 10).')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
+    current step:
+        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to use the 'robot_status_change' function on 'Robot13', which falls under the Controller's responsibility. The Controller has the tools necessary to change the status of a robot, specifically the 'robot_status_change' tool.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.", "The status of Robot13 has been changed to 'idle'.")
 ---
 replanner:
     response:
-        The vehicle has been successfully removed from location (10, 10) and Robot13 is now set to idle status.
+        Robot13 equipped with a tow hook has successfully moved to location (10, 10), removed the vehicle, and is now set to idle status.
 ---
 </t>
         </is>
@@ -949,48 +983,49 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool to verify that Robot23 is equipped with a 'front loader' tool property, as this is suitable for removing construction materials.
+        Use the select_known_robot_tool to verify if Robot23 is equipped with a tool property such as 'front loader' which is capable of handling construction materials.
+        If Robot23 is not equipped with the correct tool, identify the step needed to proceed.
         Use the move_robot function to move Robot23 to location (8, 2).
-        Use the grab_or_remove_item function to remove the construction materials from location (8, 2).
+        Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).
         Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
     current step:
-       Use the select_known_robot_tool to verify that Robot23 is equipped with a 'front loader' tool property, as this is suitable for removing construction materials.
+       Use the select_known_robot_tool to verify if Robot23 is equipped with a tool property such as 'front loader' which is capable of handling construction materials.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector is responsible for selecting the correct robot and verifying its equipment. The user has requested to use the 'select_known_robot_tool' to verify that Robot23 is equipped with a 'front loader' tool property, which falls under the Robot_selector's responsibilities.
+   reason: The user request specifies the need to verify if a particular robot, Robot23, is equipped with a tool property, in this case, 'front loader,' which is capable of handling construction materials. The Robot_selector is responsible for selecting the correct robot and has the tool 'select_known_robot_tool' that can determine if a specified robot has the required tool property to solve the objective. Therefore, the Robot_selector should act next to perform this verification.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool to verify that Robot23 is equipped with a 'front loader' tool property, as this is suitable for removing construction materials.", "The initial selected tool for Robot23 was a 'front loader,' which is appropriate for removing construction materials. However, Robot23 is not equipped with a 'front loader' but with a 'tow hook.' According to the list of items with associated tool properties, a 'tow hook' is also suitable for handling construction materials. Therefore, Robot23 with a 'tow hook' can still solve the task of removing construction materials.")
+   past steps: ("Use the select_known_robot_tool to verify if Robot23 is equipped with a tool property such as 'front loader' which is capable of handling construction materials.", "The initial selected tool for handling construction materials was a 'front loader.' However, Robot23 is not equipped with a front loader. Robot23 has a tow hook, which can also be used for handling construction materials according to the provided list of items with associated tool properties. Therefore, Robot23 with a tow hook can still solve the task of handling construction materials.")
 ---
 replanner:
     plan:
         Use the move_robot function to move Robot23 to location (8, 2).
-        Use the grab_or_remove_item function to remove the construction materials from location (8, 2).
+        Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).
         Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
     current step:
         Use the move_robot function to move Robot23 to location (8, 2).
 ---
 supervisor:
    next agent: Controller
-   reason: The user request is to use the move_robot function to move a specific robot, Robot23, to a specified location, which is (8, 2). The Controller is responsible for controlling the robots with a set of tools that include the move_robot function. Therefore, the Controller is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot23 to location (8, 2).', 'Robot23 has been moved to the location (8, 2).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to remove the construction materials from location (8, 2).
+   reason: The user has requested to use the 'move_robot' function to move a specified robot, Robot23, to a specific location (8, 2). The 'move_robot' tool is within the Controller's set of tools, hence the Controller is the appropriate worker to act next and perform the current_step.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot23 to location (8, 2).', 'Robot23 has been successfully moved to the location (8, 2).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).
         Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
     current step:
-        Use the grab_or_remove_item function to remove the construction materials from location (8, 2).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically asks to use the 'grab_or_remove_item' function to remove construction materials from a certain location. This function is within the Controller's set of tools, which makes the Controller the correct worker to act next and perform the current_step.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to remove the construction materials from location (8, 2).', 'The construction materials have been removed from location (8, 2).')
+        Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action of removing construction materials by a particular robot (Robot23) at a specific location (8, 2). Since the robot is already specified and the action falls under the Controller's responsibilities (with the use of the 'grab_or_remove_item' function), the Controller should act next to execute the given task.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).', 'Robot23 has successfully grabbed or removed the construction materials.')
 ---
 replanner:
     plan:
@@ -1000,14 +1035,14 @@
 ---
 supervisor:
    next agent: Controller
-   reason: The request is to use the 'robot_status_change' function to set the status of a specific robot (Robot23) to 'idle'. This function is within the Controller's set of tools, and the Controller is responsible for controlling the robots, including changing their status.
----
-Controller:
-   past steps: ("Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.", "Robot23's status has been set to 'idle' after the completion of the construction materials removal task.")
+   reason: The Controller is responsible for controlling the robots, including changing their status with the tool 'robot_status_change'. Since the objective is to set Robot23's status to 'idle' after completing a task, the Controller is the correct worker to perform this action.
+---
+Controller:
+   past steps: ("Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.", "Robot23's status has been successfully changed to 'idle' after the completion of the removal of construction materials.")
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot23, equipped with a tow hook, has removed the construction materials from location (8, 2) and is now set to 'idle' status.
+        Robot23 with a tow hook has successfully moved to location (8, 2), removed the construction materials, and is now set to 'idle' status. The task is complete.
 ---
 </t>
         </is>
@@ -1023,66 +1058,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot24 and the 'saw' tool property to verify if Robot24 is equipped to remove tree branches.
-        If Robot24 is not equipped with a 'saw', select a different robot using robot_selection_tool with the 'saw' tool property and the item position (11, 8).
-        Use the move_robot function with the appropriate robot name and the desired position (11, 8).
-        Use the grab_or_remove_item function with the robot name and 'tree branches' as the item name to remove the tree branches.
-        Set the robot's status to idle using the robot_status_change function with the robot name and 'idle' status.
-    current step:
-       Use the select_known_robot_tool with Robot24 and the 'saw' tool property to verify if Robot24 is equipped to remove tree branches.
+        Select Robot24 using the select_known_robot_tool with the 'saw' property to ensure it can remove tree branches.
+        Move Robot24 to location (11, 8) using the move_robot function.
+        Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.
+        Set Robot24's status to idle using the robot_status_change function.
+    current step:
+       Select Robot24 using the select_known_robot_tool with the 'saw' property to ensure it can remove tree branches.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector should act next because the user has specified a particular robot, Robot24, and requires a check for a specific tool property, 'saw'. The select_known_robot_tool is designed to determine if the specified robot has the required tool property to complete the task, which in this case is removing tree branches.
+   reason: The user request specifies the need to select Robot24 and check if it has the 'saw' property to remove tree branches. The Robot_selector is responsible for this task using the select_known_robot_tool to determine if the specified robot is equipped with the necessary tool property for the objective.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot24 and the 'saw' tool property to verify if Robot24 is equipped to remove tree branches.", 'Robot24 is equipped with a saw and has been selected to remove the tree branches.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot24 and the desired position (11, 8).
-        Use the grab_or_remove_item function with Robot24 and 'tree branches' as the item name to remove the tree branches.
-        Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.
-    current step:
-        Use the move_robot function with Robot24 and the desired position (11, 8).
----
-supervisor:
-   next agent: Controller
-   reason: The user's request is to use the 'move_robot' function to move a specific robot, Robot24, to a desired position (11, 8). This is a direct instruction involving the control of a robot's movement, which falls under the responsibilities of the Controller. The Controller has the 'move_robot' tool needed to execute this task.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot24 and the desired position (11, 8).', 'Robot24 has been successfully moved to the position (11, 8).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot24 and 'tree branches' as the item name to remove the tree branches.
-        Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.
-    current step:
-        Use the grab_or_remove_item function with Robot24 and 'tree branches' as the item name to remove the tree branches.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specifically requested the use of the 'grab_or_remove_item' function with 'Robot24' and 'tree branches' as the item name. The Controller is responsible for controlling the robots with a set of tools that includes 'grab_or_remove_item'. Since the robot name and item name are provided, the Controller is the appropriate worker to execute the function and remove the tree branches.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot24 and 'tree branches' as the item name to remove the tree branches.", 'Robot24 has successfully grabbed/removed the tree branches.')
----
-replanner:
-    plan:
-        Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.
-    current step:
-        Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for using the 'robot_status_change' function to alter the status of a robot. Since the user request specifically asks to set Robot24's status to 'idle', the Controller is the appropriate worker to execute this function.
----
-Controller:
-   past steps: ("Set Robot24's status to idle using the robot_status_change function with Robot24 and 'idle' status.", "Robot24's status has been set to idle.")
+   past steps: ("Select Robot24 using the select_known_robot_tool with the 'saw' property to ensure it can remove tree branches.", 'Robot24, equipped with a saw, has been selected to remove the tree branches.')
+---
+replanner:
+    plan:
+        Move Robot24 to location (11, 8) using the move_robot function.
+        Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.
+        Set Robot24's status to idle using the robot_status_change function.
+    current step:
+        Move Robot24 to location (11, 8) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a robot (Robot24) and a desired action (move to location (11, 8)), which is a task that falls under the responsibilities of the Controller. The Controller has the tool 'move_robot' which is designed to move a specified robot to a given position. Therefore, the Controller is the correct worker to act next on this request.
+---
+Controller:
+   past steps: ('Move Robot24 to location (11, 8) using the move_robot function.', 'Robot24 has been successfully moved to the location (11, 8).')
+---
+replanner:
+    plan:
+        Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.
+        Set Robot24's status to idle using the robot_status_change function.
+    current step:
+        Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified the action to remove tree branches, the robot to perform the task (Robot24), and the item name ('tree branches'). The Controller is responsible for controlling the robots with tools including 'grab_or_remove_item', which is the required action. Therefore, the Controller is the correct worker to act next in order to execute the task using the provided information.
+---
+Controller:
+   past steps: ("Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.", 'The tree branches have been successfully removed by Robot24.')
+---
+replanner:
+    plan:
+        Set Robot24's status to idle using the robot_status_change function.
+    current step:
+        Set Robot24's status to idle using the robot_status_change function.
+---
+supervisor:
+   next agent: Controller
+   reason: The task requires the use of the robot_status_change function to set Robot24's status to idle. The Controller is responsible for controlling the robots and has access to the robot_status_change tool, which is specifically mentioned in the user request. Therefore, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ("Set Robot24's status to idle using the robot_status_change function.", "Robot24's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot24, equipped with a saw, has removed the tree branches at location (11, 8). The robot's status is now set to idle.
+        All steps have been completed successfully. Robot24, equipped with a saw, has moved to location (11, 8) and removed the tree branches. The robot's status is now set to idle.
 ---
 </t>
         </is>
@@ -1098,65 +1132,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot15 and screwdriver to ensure Robot15 is equipped with a tool capable of removing screws.
-        Use the move_robot function with Robot15 and the coordinates (3, 8) to move Robot15 to the desired location.
-        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
-    current step:
-       Use the select_known_robot_tool with Robot15 and screwdriver to ensure Robot15 is equipped with a tool capable of removing screws.
+        Check if Robot15 is equipped with a screwdriver tool property using the select_known_robot_tool with robot_name 'Robot15' and desired_robot_tool_property 'screwdriver'.
+        Use the move_robot tool with robot_name 'Robot15' and desired_position (3, 8) to move Robot15 to the correct location.
+        Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.
+        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
+    current step:
+       Check if Robot15 is equipped with a screwdriver tool property using the select_known_robot_tool with robot_name 'Robot15' and desired_robot_tool_property 'screwdriver'.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the use of the select_known_robot_tool to check if Robot15 is equipped with a screwdriver. The Robot_selector is responsible for using the select_known_robot_tool, hence it should act next.
+   reason: The user request is to check if a specific robot, Robot15, is equipped with a screwdriver tool property. This task falls within the responsibilities of the Robot_selector, who uses the 'select_known_robot_tool' to determine if the specified robot has the required tool property to solve the objective.
 ---
 Robot_selector:
-   past steps: ('Use the select_known_robot_tool with Robot15 and screwdriver to ensure Robot15 is equipped with a tool capable of removing screws.', 'Robot15, equipped with a screwdriver, has been selected to remove screws.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot15 and the coordinates (3, 8) to move Robot15 to the desired location.
-        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
-    current step:
-        Use the move_robot function with Robot15 and the coordinates (3, 8) to move Robot15 to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot (Robot15) to a specific position (coordinates 3, 8). The 'move_robot' function falls under the Controller's tools, thus the Controller is the appropriate worker to perform the current step.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot15 and the coordinates (3, 8) to move Robot15 to the desired location.', 'Robot15 has been successfully moved to the desired position at coordinates (3, 8).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
-    current step:
-        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action 'grab_or_remove_item' which is a function controlled by the Controller. The robot name 'Robot15' and the item name 'screws' are provided, so the Controller can directly use the 'grab_or_remove_item' tool to remove the screws from the location where Robot15 is currently positioned.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.", 'Robot15 has successfully grabbed or removed the screws from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
-    current step:
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' function to set the status of Robot15 to 'idle' after the task is completed. The 'Controller' is responsible for controlling the robots with a set of tools, which includes the 'robot_status_change' function. Therefore, the Controller is the appropriate worker to carry out this function as per the user's request.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot15 and set the status to 'idle' after the task is completed.", "The status of Robot15 has been successfully changed to 'idle'.")
+   past steps: ("Check if Robot15 is equipped with a screwdriver tool property using the select_known_robot_tool with robot_name 'Robot15' and desired_robot_tool_property 'screwdriver'.", 'Robot15 is equipped with a screwdriver tool property and has been selected for the task.')
+---
+replanner:
+    plan:
+        Use the move_robot tool with robot_name 'Robot15' and desired_position (3, 8) to move Robot15 to the correct location.
+        Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.
+        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
+    current step:
+        Use the move_robot tool with robot_name 'Robot15' and desired_position (3, 8) to move Robot15 to the correct location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has requested the use of the 'move_robot' tool, which is a tool controlled by the Controller. The request specifies the robot name 'Robot15' and the desired position (3, 8), thus the Controller is responsible for executing this action.
+---
+Controller:
+   past steps: ("Use the move_robot tool with robot_name 'Robot15' and desired_position (3, 8) to move Robot15 to the correct location.", 'Robot15 has been successfully moved to the position (3, 8).')
+---
+replanner:
+    plan:
+        Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.
+        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
+    current step:
+        Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and using the tools provided. The user request requires the robot to be moved to a specific location and then to grab or remove an item. The Controller has the necessary tools, namely 'move_robot' and 'grab_or_remove_item', to fulfill this task.
+---
+Controller:
+   past steps: ("Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.", 'Robot15 has been successfully moved to location (3, 8) and has grabbed/removed the screws.')
+---
+replanner:
+    plan:
+        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
+    current step:
+        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for using the tool robot_status_change to alter the status of a robot. Since the task is to set Robot15's status to idle after completing the task, the Controller is the correct worker to perform this current_step.
+---
+Controller:
+   past steps: ("After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.", "Robot15's status is now set to idle.")
 ---
 replanner:
     response:
-        Robot15, equipped with a screwdriver, has successfully moved to location (3, 8) and removed the screws. The robot's status has been set to 'idle' after the completion of the task.
+        Robot15 equipped with a screwdriver has successfully moved to location (3, 8) and removed the screws. The robot's status is now set to idle. The task is complete.
 ---
 </t>
         </is>

--- a/Results/Raw_output/output_Easy_react.xlsx
+++ b/Results/Raw_output/output_Easy_react.xlsx
@@ -424,72 +424,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Move Robot32 to location (2, 9) and remove the toolkit.</t>
+          <t>Move Robot2 to location (2, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool to verify that Robot32 is equipped with a gripper, which is required to pick up the toolkit.
-        Use the move_robot function to move Robot32 to the desired position at coordinates (2, 9).
-        Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.
-        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
-    current step:
-       Use the select_known_robot_tool to verify that Robot32 is equipped with a gripper, which is required to pick up the toolkit.
+        Use the select_known_robot_tool with Robot2 and the 'gripper' tool property to ensure Robot2 is equipped to remove the toolkit.
+        Use the move_robot function with Robot2 and the coordinates (2, 8) to move Robot2 to the desired location.
+        Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.
+        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
+    current step:
+       Use the select_known_robot_tool with Robot2 and the 'gripper' tool property to ensure Robot2 is equipped to remove the toolkit.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has requested to verify whether Robot32 is equipped with a gripper necessary for picking up an item. The Robot_selector is responsible for determining if a specified robot has the required tool property to solve the objective. The select_known_robot_tool within the Robot_selector's tools is designed for this exact purpose.
+   reason: The user has requested to verify if Robot2 is equipped with a 'gripper' tool property to remove the toolkit. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the necessary tool property using the select_known_robot_tool. Therefore, the Robot_selector should act next to ensure Robot2 has the 'gripper' tool property required for the task.
 ---
 Robot_selector:
-   past steps: ('Use the select_known_robot_tool to verify that Robot32 is equipped with a gripper, which is required to pick up the toolkit.', 'Robot32 is equipped with a gripper and has been selected to pick up the toolkit.')
----
-replanner:
-    plan:
-        Use the move_robot function to move Robot32 to the desired position at coordinates (2, 9).
-        Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.
-        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
-    current step:
-        Use the move_robot function to move Robot32 to the desired position at coordinates (2, 9).
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to move a specific robot, Robot32, to a given position with coordinates (2, 9). This action falls under the responsibility of the Controller, who is equipped with the tool 'move_robot' which is used to move a selected robot to a desired position.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot32 to the desired position at coordinates (2, 9).', 'Robot32 has been successfully moved to the position with coordinates (2, 9).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.
-        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
-    current step:
-        Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action of removing an item ('toolkit') from a robot's location (Robot32). The Controller is responsible for such actions, using the 'grab_or_remove_item' tool to remove items from a robot's location. Since the specific robot is mentioned, there is no need for the Robot_selector to intervene.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to remove the toolkit from the location where Robot32 is positioned.', 'The toolkit has been removed from the location where Robot32 is positioned.')
----
-replanner:
-    plan:
-        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
-    current step:
-        Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling robots, including changing their status. Since the task is to set Robot32's status to idle after the toolkit has been successfully removed, the Controller should use the robot_status_change function to accomplish this.
----
-Controller:
-   past steps: ("Use the robot_status_change function to set Robot32's status to idle after the toolkit has been successfully removed.", 'The status of Robot32 has been successfully changed to idle after the toolkit was removed.')
+   past steps: ("Use the select_known_robot_tool with Robot2 and the 'gripper' tool property to ensure Robot2 is equipped to remove the toolkit.", 'Robot2, equipped with a gripper, has been selected to remove the toolkit.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot2 and the coordinates (2, 8) to move Robot2 to the desired location.
+        Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.
+        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
+    current step:
+        Use the move_robot function with Robot2 and the coordinates (2, 8) to move Robot2 to the desired location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot (Robot2) to a specific location (coordinates 2, 8). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to fulfill this request. Therefore, the Controller is the correct worker to act next to move Robot2 to the desired position.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot2 and the coordinates (2, 8) to move Robot2 to the desired location.', 'Robot2 has been successfully moved to the coordinates (2, 8).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.
+        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
+    current step:
+        Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to be performed (grab_or_remove_item) and the robot to perform it (Robot2), along with the item to be interacted with ('toolkit'). Since the Controller is responsible for controlling the robots and using the tools provided, including the grab_or_remove_item function, it is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.", 'Robot2 has successfully removed the toolkit from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
+    current step:
+        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'robot_status_change' function to set Robot2's status to 'idle' after the toolkit is removed. This function is within the Controller's set of tools, making the Controller the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.", "Robot2's status has been successfully changed to 'idle'.")
 ---
 replanner:
     response:
-        The objective has been completed. Robot32, equipped with a gripper, has moved to location (2, 9) and removed the toolkit. Robot32's status is now set to idle.
+        The task is complete. Robot2, equipped with a gripper, has successfully moved to location (2, 8) and removed the toolkit. The robot's status has been set to 'idle'.
 ---
 </t>
         </is>
@@ -498,106 +498,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot6 to location (5, 4) and remove the liquid spill.</t>
+          <t>Move Robot26 to location (11, 4) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool to check if Robot6 is equipped with a tool property capable of cleaning a liquid spill, such as a mop or vacuum.
-        If Robot6 is not equipped with the proper tool, use robot_selection_tool to find a robot that is equipped with a mop or vacuum and can reach location (5, 4).
-        Use the move_robot function to move Robot6 or the selected robot to location (5, 4).
-        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
-        Use the robot_status_change function to set Robot6 or the selected robot's status to idle after the liquid spill is removed.
-    current step:
-       Use the select_known_robot_tool to check if Robot6 is equipped with a tool property capable of cleaning a liquid spill, such as a mop or vacuum.
+        Use the select_known_robot_tool with Robot26 and the 'mop' tool property to ensure Robot26 is equipped to clean the liquid spill.
+        Use the move_robot function with Robot26 to move it to location (11, 4).
+        Use the grab_or_remove_item function with Robot26 to remove the liquid spill.
+        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
+    current step:
+       Use the select_known_robot_tool with Robot26 and the 'mop' tool property to ensure Robot26 is equipped to clean the liquid spill.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector should act next because the user has requested to verify if a specific robot, Robot6, has the appropriate tool property for cleaning a liquid spill. The select_known_robot_tool is designed for this purpose, to determine if the specified robot is equipped to handle the given task.
+   reason: The user request specifies a known robot (Robot26) and a desired tool property ('mop') to address a specific task (cleaning a liquid spill). The Robot_selector is responsible for verifying if a specified robot is equipped with the necessary tool property to complete a task using the select_known_robot_tool. Therefore, the Robot_selector should act next to ensure Robot26 has the 'mop' tool property required for the job.
 ---
 Robot_selector:
-   past steps: ('Use the select_known_robot_tool to check if Robot6 is equipped with a tool property capable of cleaning a liquid spill, such as a mop or vacuum.', 'Robot6, which is equipped with a mop, has been selected to clean the liquid spill.')
----
-replanner:
-    plan:
-        Use the move_robot function to move Robot6 to location (5, 4).
-        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
-        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
-    current step:
-        Use the move_robot function to move Robot6 to location (5, 4).
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested the specific action of moving a robot (Robot6) to a given position (5, 4). This task falls under the responsibility of the Controller, who has the tool 'move_robot' necessary to execute this action.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot6 to location (5, 4).', 'Robot6 has been successfully moved to the location (5, 4).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
-        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
-    current step:
-        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested the use of the 'grab_or_remove_item' function which is a tool controlled by the Controller. Since the specific task is to remove a liquid spill from a specified location, the Controller is responsible for commanding the robots to perform this action.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).', 'The liquid spill at location (5, 4) has been removed.')
----
-replanner:
-    plan:
-        Robot6, which is equipped with a mop, has been selected to clean the liquid spill.
-        Use the move_robot function to move Robot6 to location (5, 4).
-        Robot6 has been successfully moved to the location (5, 4).
-        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
-        The liquid spill at location (5, 4) has been removed.
-        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
-    current step:
-        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool required, which is the robot_status_change function. Since the request is to set Robot6's status to idle after completing a task (removing the liquid spill), the Controller is the appropriate worker to perform this action.
----
-Controller:
-   past steps: ('Robot6, which is equipped with a mop, has been selected to clean the liquid spill.', 'Robot6 is now cleaning the liquid spill at position (5, 6).')
----
-replanner:
-    plan:
-        Use the move_robot function to move Robot6 to location (5, 4).
-        Use the grab_or_remove_item function to remove the liquid spill from location (5, 4).
-        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
-    current step:
-        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to use the 'robot_status_change' function to set Robot6's status to idle, which is a function within the Controller's set of tools. Therefore, the Controller is the correct worker to perform this current_step.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot6 to location (5, 4).', 'Robot6 has been moved to the desired position (5, 4).')
----
-replanner:
-    plan:
-        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
-    current step:
-        Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' function, which is a tool that the Controller is responsible for. Since the action involves changing the status of a specific robot, Robot6, to 'idle' after completing a task, the Controller is the appropriate worker to carry out this step.
----
-Controller:
-   past steps: ("Use the robot_status_change function to set Robot6's status to idle after the liquid spill is removed.", "Robot6's status has been successfully changed to idle.")
+   past steps: ("Use the select_known_robot_tool with Robot26 and the 'mop' tool property to ensure Robot26 is equipped to clean the liquid spill.", 'Robot26 has been selected and is equipped with a mop to clean the liquid spill.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot26 to move it to location (11, 4).
+        Use the grab_or_remove_item function with Robot26 to remove the liquid spill.
+        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
+    current step:
+        Use the move_robot function with Robot26 to move it to location (11, 4).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot (Robot26) to a specific location (11, 4). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to fulfill this request.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot26 to move it to location (11, 4).', 'Robot26 has been successfully moved to the location (11, 4).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot26 to remove the liquid spill.
+        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
+    current step:
+        Use the grab_or_remove_item function with Robot26 to remove the liquid spill.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving a robot (Robot26) and an item (liquid spill). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the liquid spill. Since the specific robot is mentioned, there is no need for the Robot_selector to act.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function with Robot26 to remove the liquid spill.', 'Robot26 has successfully removed the liquid spill.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
+    current step:
+        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set the robot's status to 'idle' after completing a task. Since the task is to change Robot26's status to 'idle' after it has removed a liquid spill, the Controller is the correct worker to perform this action.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.", "The status of Robot26 has been successfully changed to 'idle' after the removal of the liquid spill.")
 ---
 replanner:
     response:
-        The liquid spill at location (5, 4) has been successfully removed by Robot6 equipped with a mop, and its status has been set to idle. The task is complete.
+        The liquid spill at location (11, 4) has been successfully removed by Robot26, which was equipped with a mop. Robot26's status is now set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -606,72 +572,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot29 to location (5, 12) and remove the large debris.</t>
+          <t>Move Robot42 to location (9, 5) and remove the large debris.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot29 and a 'front loader' as the desired_robot_tool_property to check if Robot29 is equipped to remove large debris.
-        Use the move_robot tool with Robot29 and the coordinates (5, 12) to move Robot29 to the desired location.
-        Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.
-        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
-    current step:
-       Use the select_known_robot_tool with Robot29 and a 'front loader' as the desired_robot_tool_property to check if Robot29 is equipped to remove large debris.
+        Use the select_known_robot_tool with Robot42 and the 'front loader' tool property to ensure Robot42 is equipped to remove large debris.
+        Use the move_robot function with Robot42 and the desired position (9, 5) to move Robot42 to the location of the large debris.
+        Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
+    current step:
+       Use the select_known_robot_tool with Robot42 and the 'front loader' tool property to ensure Robot42 is equipped to remove large debris.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user is requesting to verify if Robot29 is equipped with a 'front loader' tool property, which is necessary to remove large debris. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped to perform a specific task, using tools such as the 'select_known_robot_tool'. Therefore, the Robot_selector should act next to use the 'select_known_robot_tool' with Robot29 and a 'front loader' as the desired_robot_tool_property to check its capabilities.
+   reason: The user request specifies a known robot (Robot42) and requires confirmation that it is equipped with a specific tool property ('front loader') to remove large debris. The Robot_selector is responsible for selecting the correct robot and has the tool 'select_known_robot_tool' which is used to determine if the specified robot has the required tool property to solve the objective.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot29 and a 'front loader' as the desired_robot_tool_property to check if Robot29 is equipped to remove large debris.", 'Robot29 is equipped with a front loader and has been selected to solve the task of removing large debris.')
----
-replanner:
-    plan:
-        Use the move_robot tool with Robot29 and the coordinates (5, 12) to move Robot29 to the desired location.
-        Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.
-        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
-    current step:
-        Use the move_robot tool with Robot29 and the coordinates (5, 12) to move Robot29 to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to use the 'move_robot' tool, which is one of the tools controlled by the Controller. The specific request is to move Robot29 to the coordinates (5, 12), which falls directly under the Controller's responsibility of controlling the robots and their movements.
----
-Controller:
-   past steps: ('Use the move_robot tool with Robot29 and the coordinates (5, 12) to move Robot29 to the desired location.', 'Robot29 has been successfully moved to the position (5, 12).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.
-        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
-    current step:
-        Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action of using the grab_or_remove_item tool with a particular robot, Robot29, and a specific item, 'large debris'. This falls under the responsibility of the Controller, who controls the robots and has access to the grab_or_remove_item tool.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item tool with Robot29 and 'large debris' as the item_name to remove the large debris from the location.", 'Robot29 has successfully grabbed or removed the large debris from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
-    current step:
-        Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.
----
-supervisor:
-   next agent: Controller
-   reason: The task requires using the 'robot_status_change' tool which is one of the tools that the Controller is responsible for. The Controller can use this tool to change the status of Robot29 to 'idle' after it has completed its task.
----
-Controller:
-   past steps: ("Use the robot_status_change tool with Robot29 and 'idle' to set the robot's status after completing the task.", "Robot29's status has been successfully changed to idle.")
+   past steps: ("Use the select_known_robot_tool with Robot42 and the 'front loader' tool property to ensure Robot42 is equipped to remove large debris.", 'The initial selected tool for Robot42 was "front loader," which is suitable for removing large debris. However, Robot42 is equipped with a "gripper" tool property. According to the list of items with associated tool properties, a gripper can also be used for manipulating large debris. Therefore, Robot42 with the gripper tool property can still solve the task of removing large debris.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot42 and the desired position (9, 5) to move Robot42 to the location of the large debris.
+        Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
+    current step:
+        Use the move_robot function with Robot42 and the desired position (9, 5) to move Robot42 to the location of the large debris.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot (Robot42) to a specific position (9, 5). The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot42 to the desired position to handle the large debris. Therefore, the Controller is the appropriate worker to act next to fulfill this request.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot42 and the desired position (9, 5) to move Robot42 to the location of the large debris.', 'Robot42 has been successfully moved to the position (9, 5) where the large debris is located.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'grab_or_remove_item' function with a particular robot, Robot42, and an item, 'large debris'. The Controller is responsible for controlling the robots with a set of tools, including 'grab_or_remove_item'. Therefore, the Controller is the appropriate worker to act next to execute the function and remove the debris from the location.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.", 'Robot42 has successfully grabbed and removed the large debris from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
+    current step:
+        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'robot_status_change' function to set Robot42's status to 'idle'. This function is one of the tools available to the Controller, who is responsible for controlling the robots, including changing their status. Therefore, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.", "Robot42's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        All steps of the task have been successfully completed. Robot29, equipped with a front loader, has moved to location (5, 12), removed the large debris, and is now set to idle status.
+        Robot42 has successfully completed the task. It moved to location (9, 5), removed the large debris, and is now set to idle status.
 ---
 </t>
         </is>
@@ -680,7 +646,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot48 to location (6, 6) and remove the dust.</t>
+          <t>Move Robot48 to location (5, 6) and remove the dust.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -688,64 +654,64 @@
           <t xml:space="preserve">planner:
     plan:
         Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.
-        Use move_robot with Robot48 and the desired position (6, 6) to move Robot48 to the location.
-        Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.
-        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
+        Use the move_robot function with Robot48 and the coordinates (5, 6) to move Robot48 to the correct location.
+        Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.
+        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
     current step:
        Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies a need to ensure that Robot48 is equipped with a 'vacuum' tool property to remove dust. The Robot_selector is responsible for selecting the correct robot and verifying if it has the necessary tool property. The 'select_known_robot_tool' should be used to determine if Robot48 has the 'vacuum' capability as it is explicitly mentioned in the objective.
+   reason: The user request specifies a particular robot (Robot48) and a desired tool property ('vacuum'). The Robot_selector is responsible for determining if a specified robot is equipped with a tool property capable of solving the objective. Therefore, the Robot_selector should use the select_known_robot_tool to verify that Robot48 has the 'vacuum' tool property necessary for removing dust.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.", 'The initial selected tool was "vacuum," which is appropriate for removing dust according to the list of items with associated tool properties. However, Robot48 does not have a vacuum tool property but has a broom instead. According to the same list, a broom can also be used for dust removal. Therefore, Robot48 with the broom tool property can still solve the task of removing dust.')
----
-replanner:
-    plan:
-        Use move_robot with Robot48 and the desired position (6, 6) to move Robot48 to the location.
-        Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.
-        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
-    current step:
-        Use move_robot with Robot48 and the desired position (6, 6) to move Robot48 to the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request clearly specifies the action that needs to be taken, which is to move a specific robot, Robot48, to a desired position (6, 6). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is required for this task. Therefore, the Controller is the appropriate worker to carry out this step.
----
-Controller:
-   past steps: ('Use move_robot with Robot48 and the desired position (6, 6) to move Robot48 to the location.', 'Robot48 has been successfully moved to the position (6, 6).')
----
-replanner:
-    plan:
-        Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.
-        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
-    current step:
-        Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.
----
-supervisor:
-   next agent: Controller
-   reason: The current_step requires the use of 'grab_or_remove_item' which is a tool controlled by the Controller. The robot (Robot48) and the item ('dust') are both specified, indicating that the Controller should act next to perform the item removal task.
----
-Controller:
-   past steps: ("Use grab_or_remove_item with Robot48 and 'dust' to remove the dust at the location.", 'Robot48 has successfully grabbed/removed the dust.')
----
-replanner:
-    plan:
-        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
-    current step:
-        Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The 'robot_status_change' tool is within the Controller's set of tools, and since the objective is to set Robot48's status to 'idle' after completing a task, the Controller is the appropriate worker to perform this action.
----
-Controller:
-   past steps: ("Use robot_status_change with Robot48 and set the status to 'idle' after the dust removal is complete.", "The status of Robot48 has been changed to 'idle' following the completion of the dust removal task.")
+   past steps: ("Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.", "The initial selected tool for Robot48 to remove dust was a 'vacuum'. However, Robot48 is not equipped with a vacuum but instead has a broom. According to the list of items with associated tool properties, dust can be removed with either a vacuum or a broom. Therefore, Robot48 can still solve the task of removing dust using the broom tool property it is equipped with.")
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot48 and the coordinates (5, 6) to move Robot48 to the correct location.
+        Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.
+        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
+    current step:
+        Use the move_robot function with Robot48 and the coordinates (5, 6) to move Robot48 to the correct location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action of moving a robot (Robot48) to a certain location (coordinates 5, 6). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to perform this task. Therefore, the Controller is the correct worker to act next.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot48 and the coordinates (5, 6) to move Robot48 to the correct location.', 'Robot48 has been successfully moved to the coordinates (5, 6).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.
+        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
+    current step:
+        Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving a robot (Robot48) and an item ('dust'). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the item from the robot's location. Therefore, the Controller is the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.", 'Robot48 has successfully removed the dust from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
+    current step:
+        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has requested to use the 'robot_status_change' function to set Robot48's status to 'idle' after completing its task. The Controller is responsible for controlling the robots and has the 'robot_status_change' tool needed to perform this action.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.", "Robot48's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        Robot48 has successfully removed the dust at location (6, 6) and is now set to idle status. The task is complete.
+        Robot48 has successfully moved to location (5, 6), removed the dust using its broom, and is now set to idle status.
 ---
 </t>
         </is>
@@ -754,72 +720,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (1, 8) and remove the grass.</t>
+          <t>Move Robot31 to location (9, 4) and remove the grass.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot41 and the 'lawnmower' tool property to verify that Robot41 is equipped with a lawnmower capable of removing grass.
-        Use the move_robot function with Robot41 and the desired position (1, 8) to move Robot41 to the correct location.
-        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
-    current step:
-       Use the select_known_robot_tool with Robot41 and the 'lawnmower' tool property to verify that Robot41 is equipped with a lawnmower capable of removing grass.
+        Use the select_known_robot_tool with Robot31 and the 'lawnmower' tool property to ensure Robot31 is equipped to remove grass.
+        Use the move_robot function with Robot31 to move it to location (9, 4).
+        Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).
+        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
+    current step:
+       Use the select_known_robot_tool with Robot31 and the 'lawnmower' tool property to ensure Robot31 is equipped to remove grass.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the use of the 'select_known_robot_tool' to verify if Robot41 is equipped with a 'lawnmower' tool property. This task falls under the Robot_selector's responsibility, as they have the appropriate tool to determine if the specified robot (Robot41) has the required tool property to complete the objective.
+   reason: The user has requested to verify if a specific robot, Robot31, is equipped with a 'lawnmower' tool property. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the necessary tool property to solve the objective. The 'select_known_robot_tool' is the appropriate tool to use in this case to ensure Robot31 has the 'lawnmower' tool property required for removing grass.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot41 and the 'lawnmower' tool property to verify that Robot41 is equipped with a lawnmower capable of removing grass.", 'Robot41 is equipped with a lawnmower and has been selected to remove grass.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot41 and the desired position (1, 8) to move Robot41 to the correct location.
-        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
-    current step:
-        Use the move_robot function with Robot41 and the desired position (1, 8) to move Robot41 to the correct location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions the use of the 'move_robot' function with a designated robot (Robot41) and a desired position ((1, 8)). This function falls under the responsibility of the Controller who controls the robots with a set of tools, including 'move_robot'. Therefore, the Controller is the appropriate worker to perform the current step of moving Robot41 to the specified location.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot41 and the desired position (1, 8) to move Robot41 to the correct location.', 'Robot41 has been successfully moved to the desired position (1, 8).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots with a set of tools, which includes the 'grab_or_remove_item' function. Since the user request specifies the use of this function with Robot41 to remove an item named 'grass' from a location, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot41 and the item name 'grass' to remove the grass from the location (1, 8).", 'Robot41 has grabbed/removed the grass and has been moved to the location (1, 8).')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
-    current step:
-        Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot41's status to 'idle' after the completion of its task.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot41 and the status 'idle' to set Robot41's status to idle after the removal of the grass is complete.", "Robot41's status has been changed to idle after completing the removal of the grass.")
+   past steps: ("Use the select_known_robot_tool with Robot31 and the 'lawnmower' tool property to ensure Robot31 is equipped to remove grass.", 'Robot31, equipped with the lawnmower tool property, has been selected to remove the grass.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot31 to move it to location (9, 4).
+        Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).
+        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
+    current step:
+        Use the move_robot function with Robot31 to move it to location (9, 4).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot (Robot31) to a specific location (9, 4). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to carry out this task. Therefore, the Controller is the correct worker to act next to execute the move_robot function.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot31 to move it to location (9, 4).', 'Robot31 has been successfully moved to the location (9, 4).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).
+        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving a robot (Robot31) and an item (grass). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the item at the specified location. Therefore, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).', 'Robot31 has successfully removed the grass.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
+    current step:
+        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot31's status to 'idle' after completing the task of grass removal.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.", "Robot31's status has been successfully changed to 'idle' after completing the grass removal task.")
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot41, equipped with a lawnmower, has moved to location (1, 8), removed the grass, and is now set to idle status.
+        The task has been successfully completed. Robot31, equipped with the lawnmower tool property, has moved to location (9, 4) and removed the grass. The robot's status is now set to 'idle'.
 ---
 </t>
         </is>
@@ -828,72 +794,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot10 to location (9, 5) and remove the small debris.</t>
+          <t>Move Robot8 to location (8, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool function to verify if Robot10 is equipped with a tool property capable of removing small debris. Example tool properties for this task could be vacuum or broom.
-        Use the move_robot function to move Robot10 to location (9, 5).
-        Use the grab_or_remove_item function to remove the small debris from location (9, 5).
-        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
-    current step:
-       Use the select_known_robot_tool function to verify if Robot10 is equipped with a tool property capable of removing small debris. Example tool properties for this task could be vacuum or broom.
+        Use the select_known_robot_tool with Robot8 and the 'gripper' tool property to ensure Robot8 is equipped to remove small debris.
+        Use the move_robot function with Robot8 and the coordinates (8, 12) to move Robot8 to the desired location.
+        Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
+    current step:
+       Use the select_known_robot_tool with Robot8 and the 'gripper' tool property to ensure Robot8 is equipped to remove small debris.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector should be used next because the user request involves verifying if a specific robot, Robot10, has the necessary tool property to complete a task, which in this case is removing small debris. The select_known_robot_tool function is specifically designed for this purpose, to determine if a known robot is equipped with a tool property capable of solving the objective.
+   reason: The user request specifies a known robot (Robot8) and requires confirmation that it is equipped with a specific tool property ('gripper') to perform a task (remove small debris). The Robot_selector is responsible for selecting the correct robot and has the select_known_robot_tool which is used to determine if the specified robot has the required tool property to solve the objective.
 ---
 Robot_selector:
-   past steps: ('Use the select_known_robot_tool function to verify if Robot10 is equipped with a tool property capable of removing small debris. Example tool properties for this task could be vacuum or broom.', 'Robot10, equipped with a vacuum tool, has been selected to remove small debris.')
----
-replanner:
-    plan:
-        Use the move_robot function to move Robot10 to location (9, 5).
-        Use the grab_or_remove_item function to remove the small debris from location (9, 5).
-        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
-    current step:
-        Use the move_robot function to move Robot10 to location (9, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified the robot (Robot10) and the desired action (move to location (9, 5)). Since the Controller is responsible for controlling robots and has the tool 'move_robot' which is needed to move a specified robot to a given position, the Controller is the correct worker to carry out this action.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot10 to location (9, 5).', 'Robot10 has been successfully moved to the location (9, 5).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to remove the small debris from location (9, 5).
-        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
-    current step:
-        Use the grab_or_remove_item function to remove the small debris from location (9, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action of removing an item, which is a function that falls under the responsibilities of the Controller. The grab_or_remove_item tool is specifically designed for this task and the Controller is the worker equipped with this tool.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to remove the small debris from location (9, 5).', 'The small debris at location (9, 5) has been removed.')
----
-replanner:
-    plan:
-        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
-    current step:
-        Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request involves using a specific control function, 'robot_status_change', which is within the Controller's set of tools. The Controller is responsible for changing the robot's status, and since the objective is directly related to this function, the Controller is the appropriate worker to act next.
----
-Controller:
-   past steps: ("Use the robot_status_change function to set Robot10's status to idle after the debris has been removed.", 'The status of Robot10 has been changed to idle.')
+   past steps: ("Use the select_known_robot_tool with Robot8 and the 'gripper' tool property to ensure Robot8 is equipped to remove small debris.", "The initial selected tool for Robot8 was a 'gripper', which is suitable for removing small debris. However, Robot8 is equipped with a 'broom'. According to the list of items with associated tool properties, a broom can also be used for small debris. Therefore, Robot8 with the tool property 'broom' can still solve the task of removing small debris.")
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot8 and the coordinates (8, 12) to move Robot8 to the desired location.
+        Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
+    current step:
+        Use the move_robot function with Robot8 and the coordinates (8, 12) to move Robot8 to the desired location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot8 to the coordinates (8, 12). Therefore, the Controller is the correct worker to act next to perform the current_step.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot8 and the coordinates (8, 12) to move Robot8 to the desired location.', 'Robot8 has been successfully moved to the coordinates (8, 12).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
+    current step:
+        Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'grab_or_remove_item' function with a particular robot, Robot8, and an item, 'small debris'. The Controller is responsible for controlling the robots and has the 'grab_or_remove_item' tool needed to perform this task. Therefore, the Controller should act next to execute the function and remove the debris from the location.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.", 'Robot8 has successfully grabbed or removed the small debris from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
+    current step:
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot8's status to 'idle' after the task completion.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.", "Robot8's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        The task is complete. Robot10, equipped with a vacuum tool, successfully moved to location (9, 5), removed the small debris, and is now set to idle status.
+        Robot8 has successfully removed the small debris from location (8, 12) and is now set to idle status.
 ---
 </t>
         </is>
@@ -902,72 +868,72 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot13 to location (10, 10) and remove the vehicle.</t>
+          <t>Move Robot23 to location (11, 1) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to verify if Robot13 is equipped with a tow hook capable of removing the vehicle.
-        Use the move_robot function with 'Robot13' and the desired position '(10, 10)' to move Robot13 to the specified location.
-        Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).
-        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
-    current step:
-       Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to verify if Robot13 is equipped with a tow hook capable of removing the vehicle.
+        Use the select_known_robot_tool with Robot23 and the 'tow hook' tool property to ensure Robot23 is equipped to remove the vehicle.
+        Use the move_robot function with Robot23 and the coordinates (11, 1) to move Robot23 to the desired location.
+        Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
+    current step:
+       Use the select_known_robot_tool with Robot23 and the 'tow hook' tool property to ensure Robot23 is equipped to remove the vehicle.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request clearly asks to verify if a specific robot, Robot13, is equipped with a particular tool property, which is a 'tow hook' capable of removing a vehicle. The Robot_selector is responsible for such tasks with the use of the 'select_known_robot_tool' to determine if the specified robot has the necessary tool property to complete the objective.
+   reason: The user has specified a particular robot, Robot23, and a tool property, 'tow hook', that is needed for the task. The Robot_selector is responsible for verifying if the specified robot has the required tool property to perform the task. Therefore, the Robot_selector should use the select_known_robot_tool to confirm that Robot23 is equipped with a 'tow hook' before proceeding with the task.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to verify if Robot13 is equipped with a tow hook capable of removing the vehicle.", 'Robot13 is equipped with a tow hook and has been selected to remove the vehicle.')
----
-replanner:
-    plan:
-        Use the move_robot function with 'Robot13' and the desired position '(10, 10)' to move Robot13 to the specified location.
-        Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).
-        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
-    current step:
-        Use the move_robot function with 'Robot13' and the desired position '(10, 10)' to move Robot13 to the specified location.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specifically requested to use the 'move_robot' function with 'Robot13' and a desired position of '(10, 10)'. The Controller is responsible for controlling the robots with a set of tools including 'move_robot'. Therefore, the Controller is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ("Use the move_robot function with 'Robot13' and the desired position '(10, 10)' to move Robot13 to the specified location.", 'Robot13 has been successfully moved to the desired position (10, 10).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).
-        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
-    current step:
-        Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).
----
-supervisor:
-   next agent: Controller
-   reason: Since the specific robot ('Robot13') and the item ('vehicle') to be removed are both specified, the Controller is the appropriate worker to carry out the task. The Controller has the 'grab_or_remove_item' tool which is needed to remove the vehicle from the robot's location.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with 'Robot13' and 'vehicle' to remove the vehicle from location (10, 10).", 'Robot13 has successfully grabbed/removed the vehicle and moved to the location (10, 10).')
----
-replanner:
-    plan:
-        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
-    current step:
-        Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to use the 'robot_status_change' function on 'Robot13', which falls under the Controller's responsibility. The Controller has the tools necessary to change the status of a robot, specifically the 'robot_status_change' tool.
----
-Controller:
-   past steps: ("Use the robot_status_change function with 'Robot13' and set the status to 'idle' after the removal of the vehicle is complete.", "The status of Robot13 has been changed to 'idle'.")
+   past steps: ("Use the select_known_robot_tool with Robot23 and the 'tow hook' tool property to ensure Robot23 is equipped to remove the vehicle.", 'Robot23 has been selected and is equipped with a tow hook to remove the vehicle.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot23 and the coordinates (11, 1) to move Robot23 to the desired location.
+        Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
+    current step:
+        Use the move_robot function with Robot23 and the coordinates (11, 1) to move Robot23 to the desired location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot to a desired location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot23 to the coordinates (11, 1). Therefore, the Controller is the correct worker to act next to fulfill this request.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot23 and the coordinates (11, 1) to move Robot23 to the desired location.', 'Robot23 has been successfully moved to the position with coordinates (11, 1).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
+    current step:
+        Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving a robot (Robot23) and an item ('vehicle'). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the vehicle from the location. Therefore, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.", 'Robot23 has successfully grabbed/removed the vehicle from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
+    current step:
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot23's status to 'idle' after the vehicle is removed. This matches the user request to use the robot_status_change function with Robot23.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.", 'Robot23 has successfully removed the vehicle and is now set to idle status.')
 ---
 replanner:
     response:
-        Robot13 equipped with a tow hook has successfully moved to location (10, 10), removed the vehicle, and is now set to idle status.
+        Robot23 equipped with a tow hook has successfully moved to location (11, 1), removed the vehicle, and is now set to idle status.
 ---
 </t>
         </is>
@@ -976,73 +942,72 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot23 to location (8, 2) and remove the construction materials.</t>
+          <t>Move Robot23 to location (12, 10) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool to verify if Robot23 is equipped with a tool property such as 'front loader' which is capable of handling construction materials.
-        If Robot23 is not equipped with the correct tool, identify the step needed to proceed.
-        Use the move_robot function to move Robot23 to location (8, 2).
-        Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).
-        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
-    current step:
-       Use the select_known_robot_tool to verify if Robot23 is equipped with a tool property such as 'front loader' which is capable of handling construction materials.
+        Use the select_known_robot_tool with Robot23 and a tool property such as 'front loader' to ensure Robot23 is equipped to remove construction materials.
+        Use the move_robot function with Robot23 and the coordinates (12, 10) to move Robot23 to the desired location.
+        Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
+    current step:
+       Use the select_known_robot_tool with Robot23 and a tool property such as 'front loader' to ensure Robot23 is equipped to remove construction materials.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to verify if a particular robot, Robot23, is equipped with a tool property, in this case, 'front loader,' which is capable of handling construction materials. The Robot_selector is responsible for selecting the correct robot and has the tool 'select_known_robot_tool' that can determine if a specified robot has the required tool property to solve the objective. Therefore, the Robot_selector should act next to perform this verification.
+   reason: The user request specifies the need to use the 'select_known_robot_tool' to verify if Robot23 has the 'front loader' tool property necessary for removing construction materials. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the required tool property, making it the appropriate worker to act next.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool to verify if Robot23 is equipped with a tool property such as 'front loader' which is capable of handling construction materials.", "The initial selected tool for handling construction materials was a 'front loader.' However, Robot23 is not equipped with a front loader. Robot23 has a tow hook, which can also be used for handling construction materials according to the provided list of items with associated tool properties. Therefore, Robot23 with a tow hook can still solve the task of handling construction materials.")
----
-replanner:
-    plan:
-        Use the move_robot function to move Robot23 to location (8, 2).
-        Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).
-        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
-    current step:
-        Use the move_robot function to move Robot23 to location (8, 2).
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested to use the 'move_robot' function to move a specified robot, Robot23, to a specific location (8, 2). The 'move_robot' tool is within the Controller's set of tools, hence the Controller is the appropriate worker to act next and perform the current_step.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot23 to location (8, 2).', 'Robot23 has been successfully moved to the location (8, 2).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).
-        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
-    current step:
-        Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action of removing construction materials by a particular robot (Robot23) at a specific location (8, 2). Since the robot is already specified and the action falls under the Controller's responsibilities (with the use of the 'grab_or_remove_item' function), the Controller should act next to execute the given task.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to have Robot23 remove the construction materials at location (8, 2).', 'Robot23 has successfully grabbed or removed the construction materials.')
----
-replanner:
-    plan:
-        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
-    current step:
-        Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots, including changing their status with the tool 'robot_status_change'. Since the objective is to set Robot23's status to 'idle' after completing a task, the Controller is the correct worker to perform this action.
----
-Controller:
-   past steps: ("Use the robot_status_change function to set Robot23's status to 'idle' after the removal of the construction materials is complete.", "Robot23's status has been successfully changed to 'idle' after the completion of the removal of construction materials.")
+   past steps: ("Use the select_known_robot_tool with Robot23 and a tool property such as 'front loader' to ensure Robot23 is equipped to remove construction materials.", 'The initial selected tool for Robot23 was a "front loader," which is appropriate for removing construction materials according to the provided list of items and associated tool properties. However, Robot23 is equipped with a "tow hook" instead.\n\nBased on the list, a "tow hook" is suitable for handling vehicles and construction materials. Therefore, even though Robot23 does not have the initially selected "front loader," it can still solve the task of removing construction materials using its "tow hook," as this tool is also associated with construction materials.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot23 and the coordinates (12, 10) to move Robot23 to the desired location.
+        Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
+    current step:
+        Use the move_robot function with Robot23 and the coordinates (12, 10) to move Robot23 to the desired location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot23 to the coordinates (12, 10). Therefore, the Controller is the correct worker to act next to fulfill this request.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot23 and the coordinates (12, 10) to move Robot23 to the desired location.', 'Robot23 has been successfully moved to the coordinates (12, 10).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
+    current step:
+        Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'grab_or_remove_item' function with a specific robot (Robot23) and an item ('construction materials'). The Controller is responsible for controlling the robots with a set of tools, including 'grab_or_remove_item'. Since the robot and the item are already specified, there is no need for the Robot_selector to act, and the task does not involve answering generic questions, which would require the misc_agent.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.", 'Robot23 has successfully removed the construction materials from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
+    current step:
+        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'robot_status_change' function to set the status of Robot23 to 'idle' after the task is completed. This function is within the set of tools that the Controller is responsible for. Therefore, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.", "The status of Robot23 has been successfully changed to 'idle'.")
 ---
 replanner:
     response:
-        Robot23 with a tow hook has successfully moved to location (8, 2), removed the construction materials, and is now set to 'idle' status. The task is complete.
+        The task has been completed successfully. Robot23, equipped with a tow hook, has moved to location (12, 10) and removed the construction materials. The robot's status is now set to 'idle'.
 ---
 </t>
         </is>
@@ -1051,72 +1016,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot24 to location (11, 8) and remove the tree branches.</t>
+          <t>Move Robot14 to location (7, 11) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Select Robot24 using the select_known_robot_tool with the 'saw' property to ensure it can remove tree branches.
-        Move Robot24 to location (11, 8) using the move_robot function.
-        Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.
-        Set Robot24's status to idle using the robot_status_change function.
-    current step:
-       Select Robot24 using the select_known_robot_tool with the 'saw' property to ensure it can remove tree branches.
+        Use the select_known_robot_tool with Robot14 and the 'saw' tool property to ensure Robot14 is equipped to remove tree branches.
+        Use the move_robot function with Robot14 and the coordinates (7, 11) to move Robot14 to the location of the tree branches.
+        Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
+    current step:
+       Use the select_known_robot_tool with Robot14 and the 'saw' tool property to ensure Robot14 is equipped to remove tree branches.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to select Robot24 and check if it has the 'saw' property to remove tree branches. The Robot_selector is responsible for this task using the select_known_robot_tool to determine if the specified robot is equipped with the necessary tool property for the objective.
+   reason: The user has requested to verify if a specific robot, Robot14, is equipped with a 'saw' tool property to remove tree branches. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the necessary tool property using the select_known_robot_tool. Therefore, the Robot_selector should act next to ensure Robot14 has the 'saw' tool property required for the task.
 ---
 Robot_selector:
-   past steps: ("Select Robot24 using the select_known_robot_tool with the 'saw' property to ensure it can remove tree branches.", 'Robot24, equipped with a saw, has been selected to remove the tree branches.')
----
-replanner:
-    plan:
-        Move Robot24 to location (11, 8) using the move_robot function.
-        Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.
-        Set Robot24's status to idle using the robot_status_change function.
-    current step:
-        Move Robot24 to location (11, 8) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a robot (Robot24) and a desired action (move to location (11, 8)), which is a task that falls under the responsibilities of the Controller. The Controller has the tool 'move_robot' which is designed to move a specified robot to a given position. Therefore, the Controller is the correct worker to act next on this request.
----
-Controller:
-   past steps: ('Move Robot24 to location (11, 8) using the move_robot function.', 'Robot24 has been successfully moved to the location (11, 8).')
----
-replanner:
-    plan:
-        Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.
-        Set Robot24's status to idle using the robot_status_change function.
-    current step:
-        Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified the action to remove tree branches, the robot to perform the task (Robot24), and the item name ('tree branches'). The Controller is responsible for controlling the robots with tools including 'grab_or_remove_item', which is the required action. Therefore, the Controller is the correct worker to act next in order to execute the task using the provided information.
----
-Controller:
-   past steps: ("Remove the tree branches using the grab_or_remove_item function with Robot24 and the item name 'tree branches'.", 'The tree branches have been successfully removed by Robot24.')
----
-replanner:
-    plan:
-        Set Robot24's status to idle using the robot_status_change function.
-    current step:
-        Set Robot24's status to idle using the robot_status_change function.
----
-supervisor:
-   next agent: Controller
-   reason: The task requires the use of the robot_status_change function to set Robot24's status to idle. The Controller is responsible for controlling the robots and has access to the robot_status_change tool, which is specifically mentioned in the user request. Therefore, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ("Set Robot24's status to idle using the robot_status_change function.", "Robot24's status has been successfully changed to idle.")
+   past steps: ("Use the select_known_robot_tool with Robot14 and the 'saw' tool property to ensure Robot14 is equipped to remove tree branches.", 'Robot14, equipped with a saw, has been selected to remove tree branches.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot14 and the coordinates (7, 11) to move Robot14 to the location of the tree branches.
+        Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
+    current step:
+        Use the move_robot function with Robot14 and the coordinates (7, 11) to move Robot14 to the location of the tree branches.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving moving a robot to a certain location. The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to move Robot14 to the desired position (7, 11). Therefore, the Controller is the correct worker to act next to fulfill this request.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot14 and the coordinates (7, 11) to move Robot14 to the location of the tree branches.', 'Robot14 has been successfully moved to the coordinates (7, 11) near the tree branches.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
+    current step:
+        Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'grab_or_remove_item' function with a specific robot (Robot14) and an item ('tree branches'). The Controller is responsible for controlling the robots with a set of tools, including 'grab_or_remove_item'. Since the robot and the item are already specified, there is no need for the Robot_selector to act. Therefore, the Controller should perform the current_step.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.", 'Robot14 has successfully grabbed/removed the tree branches from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
+    current step:
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'robot_status_change' function to set Robot14's status to 'idle' after completing a task. The Controller is responsible for using this function as part of their toolset.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.", 'Robot14 has successfully removed the tree branches and is now set to idle status.')
 ---
 replanner:
     response:
-        All steps have been completed successfully. Robot24, equipped with a saw, has moved to location (11, 8) and removed the tree branches. The robot's status is now set to idle.
+        Robot14, equipped with a saw, has successfully moved to location (7, 11), removed the tree branches, and is now set to idle status.
 ---
 </t>
         </is>
@@ -1125,72 +1090,72 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (3, 8) and remove the screws.</t>
+          <t>Move Robot15 to location (5, 3) and remove the screws.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Check if Robot15 is equipped with a screwdriver tool property using the select_known_robot_tool with robot_name 'Robot15' and desired_robot_tool_property 'screwdriver'.
-        Use the move_robot tool with robot_name 'Robot15' and desired_position (3, 8) to move Robot15 to the correct location.
-        Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.
-        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
-    current step:
-       Check if Robot15 is equipped with a screwdriver tool property using the select_known_robot_tool with robot_name 'Robot15' and desired_robot_tool_property 'screwdriver'.
+        Use the select_known_robot_tool with Robot15 and the screwdriver tool property to ensure Robot15 is equipped to remove screws.
+        Use the move_robot function with Robot15 and the coordinates (5, 3) to move Robot15 to the desired location.
+        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
+    current step:
+       Use the select_known_robot_tool with Robot15 and the screwdriver tool property to ensure Robot15 is equipped to remove screws.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request is to check if a specific robot, Robot15, is equipped with a screwdriver tool property. This task falls within the responsibilities of the Robot_selector, who uses the 'select_known_robot_tool' to determine if the specified robot has the required tool property to solve the objective.
+   reason: The user has requested to verify if a specific robot, Robot15, is equipped with a tool property, in this case, a screwdriver, to remove screws. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the necessary tool property using the select_known_robot_tool. Therefore, the Robot_selector should act next to ensure Robot15 has the screwdriver tool property required for the task.
 ---
 Robot_selector:
-   past steps: ("Check if Robot15 is equipped with a screwdriver tool property using the select_known_robot_tool with robot_name 'Robot15' and desired_robot_tool_property 'screwdriver'.", 'Robot15 is equipped with a screwdriver tool property and has been selected for the task.')
----
-replanner:
-    plan:
-        Use the move_robot tool with robot_name 'Robot15' and desired_position (3, 8) to move Robot15 to the correct location.
-        Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.
-        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
-    current step:
-        Use the move_robot tool with robot_name 'Robot15' and desired_position (3, 8) to move Robot15 to the correct location.
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested the use of the 'move_robot' tool, which is a tool controlled by the Controller. The request specifies the robot name 'Robot15' and the desired position (3, 8), thus the Controller is responsible for executing this action.
----
-Controller:
-   past steps: ("Use the move_robot tool with robot_name 'Robot15' and desired_position (3, 8) to move Robot15 to the correct location.", 'Robot15 has been successfully moved to the position (3, 8).')
----
-replanner:
-    plan:
-        Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.
-        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
-    current step:
-        Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and using the tools provided. The user request requires the robot to be moved to a specific location and then to grab or remove an item. The Controller has the necessary tools, namely 'move_robot' and 'grab_or_remove_item', to fulfill this task.
----
-Controller:
-   past steps: ("Once Robot15 is at location (3, 8), use the grab_or_remove_item tool with robot_name 'Robot15' and item_name 'screws' to remove the screws.", 'Robot15 has been successfully moved to location (3, 8) and has grabbed/removed the screws.')
----
-replanner:
-    plan:
-        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
-    current step:
-        After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for using the tool robot_status_change to alter the status of a robot. Since the task is to set Robot15's status to idle after completing the task, the Controller is the correct worker to perform this current_step.
----
-Controller:
-   past steps: ("After completing the task, use the robot_status_change tool with robot_name 'Robot15' and status 'idle' to set Robot15's status to idle.", "Robot15's status is now set to idle.")
+   past steps: ('Use the select_known_robot_tool with Robot15 and the screwdriver tool property to ensure Robot15 is equipped to remove screws.', 'Robot15, equipped with a screwdriver, has been selected to remove screws.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot15 and the coordinates (5, 3) to move Robot15 to the desired location.
+        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
+    current step:
+        Use the move_robot function with Robot15 and the coordinates (5, 3) to move Robot15 to the desired location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot to a desired location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot15 to the coordinates (5, 3). Therefore, the Controller is the appropriate worker to act next to fulfill this request.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot15 and the coordinates (5, 3) to move Robot15 to the desired location.', 'Robot15 has been successfully moved to the coordinates (5, 3).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
+    current step:
+        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified a direct action involving a specific robot (Robot15) and an item ('screws'). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the screws from the location. Therefore, the Controller is the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.", 'Robot15 has successfully grabbed/removed the screws from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
+    current step:
+        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot15's status to 'idle' after the screws have been removed. This is a direct instruction involving a specific robot and its status change, which falls under the Controller's responsibilities.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.", "The status of Robot15 has been changed to 'idle'.")
 ---
 replanner:
     response:
-        Robot15 equipped with a screwdriver has successfully moved to location (3, 8) and removed the screws. The robot's status is now set to idle. The task is complete.
+        Robot15, equipped with a screwdriver, has successfully moved to location (5, 3) and removed the screws. The robot's status has been set to 'idle' upon completion of the task.
 ---
 </t>
         </is>

--- a/Results/Raw_output/output_Easy_react.xlsx
+++ b/Results/Raw_output/output_Easy_react.xlsx
@@ -424,72 +424,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Move Robot2 to location (2, 8) and remove the toolkit.</t>
+          <t>Move Robot42 to location (4, 3) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot2 and the 'gripper' tool property to ensure Robot2 is equipped to remove the toolkit.
-        Use the move_robot function with Robot2 and the coordinates (2, 8) to move Robot2 to the desired location.
-        Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.
-        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
-    current step:
-       Use the select_known_robot_tool with Robot2 and the 'gripper' tool property to ensure Robot2 is equipped to remove the toolkit.
+        Use the select_known_robot_tool with Robot42 and the 'gripper' tool property to ensure Robot42 is equipped to remove the toolkit.
+        Use the move_robot function with Robot42 and the desired position (4, 3) to move Robot42 to the location of the toolkit.
+        Use the grab_or_remove_item function with Robot42 and 'toolkit' to remove the toolkit from the location.
+        Use the robot_status_change function with Robot42 and set the status to 'idle' after the toolkit has been removed.
+    current step:
+       Use the select_known_robot_tool with Robot42 and the 'gripper' tool property to ensure Robot42 is equipped to remove the toolkit.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has requested to verify if Robot2 is equipped with a 'gripper' tool property to remove the toolkit. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the necessary tool property using the select_known_robot_tool. Therefore, the Robot_selector should act next to ensure Robot2 has the 'gripper' tool property required for the task.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot42 is equipped with the 'gripper' tool property to remove the toolkit.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot2 and the 'gripper' tool property to ensure Robot2 is equipped to remove the toolkit.", 'Robot2, equipped with a gripper, has been selected to remove the toolkit.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot2 and the coordinates (2, 8) to move Robot2 to the desired location.
-        Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.
-        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
-    current step:
-        Use the move_robot function with Robot2 and the coordinates (2, 8) to move Robot2 to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot (Robot2) to a specific location (coordinates 2, 8). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to fulfill this request. Therefore, the Controller is the correct worker to act next to move Robot2 to the desired position.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot2 and the coordinates (2, 8) to move Robot2 to the desired location.', 'Robot2 has been successfully moved to the coordinates (2, 8).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.
-        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
-    current step:
-        Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to be performed (grab_or_remove_item) and the robot to perform it (Robot2), along with the item to be interacted with ('toolkit'). Since the Controller is responsible for controlling the robots and using the tools provided, including the grab_or_remove_item function, it is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot2 and 'toolkit' to remove the toolkit from the location.", 'Robot2 has successfully removed the toolkit from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
-    current step:
-        Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' function to set Robot2's status to 'idle' after the toolkit is removed. This function is within the Controller's set of tools, making the Controller the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot2 and set the status to 'idle' after the toolkit is removed.", "Robot2's status has been successfully changed to 'idle'.")
+   past steps: ("Use the select_known_robot_tool with Robot42 and the 'gripper' tool property to ensure Robot42 is equipped to remove the toolkit.", 'Robot42 with the gripper tool property has been selected to remove the toolkit.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot42 and the desired position (4, 3) to move Robot42 to the location of the toolkit.
+        Use the grab_or_remove_item function with Robot42 and 'toolkit' to remove the toolkit from the location.
+        Use the robot_status_change function with Robot42 and set the status to 'idle' after the toolkit has been removed.
+    current step:
+        Use the move_robot function with Robot42 and the desired position (4, 3) to move Robot42 to the location of the toolkit.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves controlling the robots and using the move_robot function to move Robot42 to the desired position.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot42 and the desired position (4, 3) to move Robot42 to the location of the toolkit.', 'Robot42 has been successfully moved to the location of the toolkit.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot42 and 'toolkit' to remove the toolkit from the location.
+        Use the robot_status_change function with Robot42 and set the status to 'idle' after the toolkit has been removed.
+    current step:
+        Use the grab_or_remove_item function with Robot42 and 'toolkit' to remove the toolkit from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next worker to act should be the Controller, as the task involves using the grab_or_remove_item function to remove an item from the robot's location, which falls under the control of the Controller worker.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot42 and 'toolkit' to remove the toolkit from the location.", 'The toolkit has been successfully removed from the location by Robot42.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot42 and set the status to 'idle' after the toolkit has been removed.
+    current step:
+        Use the robot_status_change function with Robot42 and set the status to 'idle' after the toolkit has been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step requires using the robot_status_change function to set the status of Robot42 to 'idle' after the toolkit has been removed. This action falls under the responsibility of the Controller, who is in charge of controlling the robots and their status changes.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot42 and set the status to 'idle' after the toolkit has been removed.", "The status of Robot42 has been successfully changed to 'idle' after the toolkit has been removed.")
 ---
 replanner:
     response:
-        The task is complete. Robot2, equipped with a gripper, has successfully moved to location (2, 8) and removed the toolkit. The robot's status has been set to 'idle'.
+        The toolkit has been successfully removed from location (4, 3) by Robot42, which is now set to idle status. The task is complete.
 ---
 </t>
         </is>
@@ -498,72 +498,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot26 to location (11, 4) and remove the liquid spill.</t>
+          <t>Move Robot6 to location (9, 9) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot26 and the 'mop' tool property to ensure Robot26 is equipped to clean the liquid spill.
-        Use the move_robot function with Robot26 to move it to location (11, 4).
-        Use the grab_or_remove_item function with Robot26 to remove the liquid spill.
-        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
-    current step:
-       Use the select_known_robot_tool with Robot26 and the 'mop' tool property to ensure Robot26 is equipped to clean the liquid spill.
+        Use the select_known_robot_tool with Robot6 and the 'mop' tool property to ensure Robot6 is equipped to remove the liquid spill.
+        Use the move_robot function with Robot6 and the desired position (9, 9) to move Robot6 to the location of the liquid spill.
+        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to remove the spill from the location.
+        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status to idle after the task is complete.
+    current step:
+       Use the select_known_robot_tool with Robot6 and the 'mop' tool property to ensure Robot6 is equipped to remove the liquid spill.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies a known robot (Robot26) and a desired tool property ('mop') to address a specific task (cleaning a liquid spill). The Robot_selector is responsible for verifying if a specified robot is equipped with the necessary tool property to complete a task using the select_known_robot_tool. Therefore, the Robot_selector should act next to ensure Robot26 has the 'mop' tool property required for the job.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot6 is equipped with the 'mop' tool property.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot26 and the 'mop' tool property to ensure Robot26 is equipped to clean the liquid spill.", 'Robot26 has been selected and is equipped with a mop to clean the liquid spill.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot26 to move it to location (11, 4).
-        Use the grab_or_remove_item function with Robot26 to remove the liquid spill.
-        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
-    current step:
-        Use the move_robot function with Robot26 to move it to location (11, 4).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot (Robot26) to a specific location (11, 4). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to fulfill this request.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot26 to move it to location (11, 4).', 'Robot26 has been successfully moved to the location (11, 4).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot26 to remove the liquid spill.
-        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
-    current step:
-        Use the grab_or_remove_item function with Robot26 to remove the liquid spill.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving a robot (Robot26) and an item (liquid spill). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the liquid spill. Since the specific robot is mentioned, there is no need for the Robot_selector to act.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function with Robot26 to remove the liquid spill.', 'Robot26 has successfully removed the liquid spill.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
-    current step:
-        Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set the robot's status to 'idle' after completing a task. Since the task is to change Robot26's status to 'idle' after it has removed a liquid spill, the Controller is the correct worker to perform this action.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot26 to set its status to 'idle' after the liquid spill is removed.", "The status of Robot26 has been successfully changed to 'idle' after the removal of the liquid spill.")
+   past steps: ("Use the select_known_robot_tool with Robot6 and the 'mop' tool property to ensure Robot6 is equipped to remove the liquid spill.", 'Robot6 with the tool property: mop has been selected to solve the task.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot6 and the desired position (9, 9) to move Robot6 to the location of the liquid spill.
+        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to remove the spill from the location.
+        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status to idle after the task is complete.
+    current step:
+        Use the move_robot function with Robot6 and the desired position (9, 9) to move Robot6 to the location of the liquid spill.
+---
+supervisor:
+   next agent: Controller
+   reason: The next worker to act should be the Controller, as the task requires using the move_robot function to move Robot6 to the location of the liquid spill. This falls under the responsibility of the Controller, who is in charge of controlling the robots with a set of tools, including the move_robot function.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot6 and the desired position (9, 9) to move Robot6 to the location of the liquid spill.', 'Robot6 has been successfully moved to the location of the liquid spill.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to remove the spill from the location.
+        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status to idle after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to remove the spill from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller because it involves using the grab_or_remove_item function to remove the spill from the location using Robot6.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to remove the spill from the location.", 'The liquid spill has been successfully removed by Robot6.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status to idle after the task is complete.
+    current step:
+        Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status to idle after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves changing the status of Robot6 to 'idle' after the task is complete. This falls under the responsibility of the Controller, who is responsible for controlling the robots and their status changes.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot6 and the status 'idle' to set Robot6's status to idle after the task is complete.", 'The status of Robot6 has been successfully changed to "idle" after completing the task.')
 ---
 replanner:
     response:
-        The liquid spill at location (11, 4) has been successfully removed by Robot26, which was equipped with a mop. Robot26's status is now set to 'idle'. The task is complete.
+        The task has been successfully completed. Robot6 equipped with a mop has moved to location (9, 9) and removed the liquid spill. The robot's status is now set to idle.
 ---
 </t>
         </is>
@@ -572,72 +572,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot42 to location (9, 5) and remove the large debris.</t>
+          <t>Move Robot19 to location (8, 5) and remove the large debris.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot42 and the 'front loader' tool property to ensure Robot42 is equipped to remove large debris.
-        Use the move_robot function with Robot42 and the desired position (9, 5) to move Robot42 to the location of the large debris.
-        Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
-    current step:
-       Use the select_known_robot_tool with Robot42 and the 'front loader' tool property to ensure Robot42 is equipped to remove large debris.
+        Use the select_known_robot_tool with Robot19 and the 'front loader' tool property to ensure Robot19 is equipped to remove large debris.
+        Use the move_robot function with Robot19 and the desired position (8, 5) to move Robot19 to the location of the large debris.
+        Use the grab_or_remove_item function with Robot19 and the item name 'large debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot19 and the status 'idle' to set Robot19's status to idle after the task is complete.
+    current step:
+       Use the select_known_robot_tool with Robot19 and the 'front loader' tool property to ensure Robot19 is equipped to remove large debris.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies a known robot (Robot42) and requires confirmation that it is equipped with a specific tool property ('front loader') to remove large debris. The Robot_selector is responsible for selecting the correct robot and has the tool 'select_known_robot_tool' which is used to determine if the specified robot has the required tool property to solve the objective.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot19 is equipped with the 'front loader' tool property.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot42 and the 'front loader' tool property to ensure Robot42 is equipped to remove large debris.", 'The initial selected tool for Robot42 was "front loader," which is suitable for removing large debris. However, Robot42 is equipped with a "gripper" tool property. According to the list of items with associated tool properties, a gripper can also be used for manipulating large debris. Therefore, Robot42 with the gripper tool property can still solve the task of removing large debris.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot42 and the desired position (9, 5) to move Robot42 to the location of the large debris.
-        Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
-    current step:
-        Use the move_robot function with Robot42 and the desired position (9, 5) to move Robot42 to the location of the large debris.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot (Robot42) to a specific position (9, 5). The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot42 to the desired position to handle the large debris. Therefore, the Controller is the appropriate worker to act next to fulfill this request.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot42 and the desired position (9, 5) to move Robot42 to the location of the large debris.', 'Robot42 has been successfully moved to the position (9, 5) where the large debris is located.')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'grab_or_remove_item' function with a particular robot, Robot42, and an item, 'large debris'. The Controller is responsible for controlling the robots with a set of tools, including 'grab_or_remove_item'. Therefore, the Controller is the appropriate worker to act next to execute the function and remove the debris from the location.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot42 and the item name 'large debris' to remove the debris from the location.", 'Robot42 has successfully grabbed and removed the large debris from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
-    current step:
-        Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' function to set Robot42's status to 'idle'. This function is one of the tools available to the Controller, who is responsible for controlling the robots, including changing their status. Therefore, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot42 and the status 'idle' to set Robot42's status to idle after the task is complete.", "Robot42's status has been successfully changed to idle.")
+   past steps: ("Use the select_known_robot_tool with Robot19 and the 'front loader' tool property to ensure Robot19 is equipped to remove large debris.", 'Robot19 with the front loader tool property has been selected to remove large debris.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot19 and the desired position (8, 5) to move Robot19 to the location of the large debris.
+        Use the grab_or_remove_item function with Robot19 and the item name 'large debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot19 and the status 'idle' to set Robot19's status to idle after the task is complete.
+    current step:
+        Use the move_robot function with Robot19 and the desired position (8, 5) to move Robot19 to the location of the large debris.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as the task involves controlling the robots and using the move_robot function to move Robot19 to the desired position.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot19 and the desired position (8, 5) to move Robot19 to the location of the large debris.', 'Robot19 has been successfully moved to the location of the large debris.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot19 and the item name 'large debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot19 and the status 'idle' to set Robot19's status to idle after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot19 and the item name 'large debris' to remove the debris from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next to use the grab_or_remove_item function with Robot19 and the item name 'large debris' to remove the debris from the location.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot19 and the item name 'large debris' to remove the debris from the location.", 'The large debris has been successfully removed by Robot19.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot19 and the status 'idle' to set Robot19's status to idle after the task is complete.
+    current step:
+        Use the robot_status_change function with Robot19 and the status 'idle' to set Robot19's status to idle after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves changing the status of the robot to 'idle' after the task is complete. This falls under the responsibility of the Controller, who is responsible for controlling the robots and their status changes.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot19 and the status 'idle' to set Robot19's status to idle after the task is complete.", 'The status of Robot19 has been successfully changed to "idle" after completing the task.')
 ---
 replanner:
     response:
-        Robot42 has successfully completed the task. It moved to location (9, 5), removed the large debris, and is now set to idle status.
+        The task has been successfully completed. Robot19 equipped with a front loader has moved to location (8, 5) and removed the large debris. Robot19's status is now set to idle.
 ---
 </t>
         </is>
@@ -646,72 +646,72 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot48 to location (5, 6) and remove the dust.</t>
+          <t>Move Robot8 to location (5, 2) and remove the dust.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.
-        Use the move_robot function with Robot48 and the coordinates (5, 6) to move Robot48 to the correct location.
-        Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.
-        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
-    current step:
-       Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.
+        Use the select_known_robot_tool with Robot8 and the 'vacuum' tool property to ensure Robot8 is equipped to remove dust.
+        Use the move_robot function with Robot8 and the desired position (5, 2) to move Robot8 to the correct location.
+        Use the grab_or_remove_item function with Robot8 and the item 'dust' to remove the dust from the location.
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status after completing the task.
+    current step:
+       Use the select_known_robot_tool with Robot8 and the 'vacuum' tool property to ensure Robot8 is equipped to remove dust.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies a particular robot (Robot48) and a desired tool property ('vacuum'). The Robot_selector is responsible for determining if a specified robot is equipped with a tool property capable of solving the objective. Therefore, the Robot_selector should use the select_known_robot_tool to verify that Robot48 has the 'vacuum' tool property necessary for removing dust.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot8 is equipped with the 'vacuum' tool property.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot48 and the 'vacuum' tool property to ensure Robot48 is equipped to remove dust.", "The initial selected tool for Robot48 to remove dust was a 'vacuum'. However, Robot48 is not equipped with a vacuum but instead has a broom. According to the list of items with associated tool properties, dust can be removed with either a vacuum or a broom. Therefore, Robot48 can still solve the task of removing dust using the broom tool property it is equipped with.")
----
-replanner:
-    plan:
-        Use the move_robot function with Robot48 and the coordinates (5, 6) to move Robot48 to the correct location.
-        Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.
-        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
-    current step:
-        Use the move_robot function with Robot48 and the coordinates (5, 6) to move Robot48 to the correct location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action of moving a robot (Robot48) to a certain location (coordinates 5, 6). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to perform this task. Therefore, the Controller is the correct worker to act next.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot48 and the coordinates (5, 6) to move Robot48 to the correct location.', 'Robot48 has been successfully moved to the coordinates (5, 6).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.
-        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
-    current step:
-        Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving a robot (Robot48) and an item ('dust'). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the item from the robot's location. Therefore, the Controller is the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot48 and the item 'dust' to remove the dust from the location.", 'Robot48 has successfully removed the dust from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
-    current step:
-        Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested to use the 'robot_status_change' function to set Robot48's status to 'idle' after completing its task. The Controller is responsible for controlling the robots and has the 'robot_status_change' tool needed to perform this action.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot48 and the status 'idle' to set Robot48's status after completing the task.", "Robot48's status has been successfully changed to idle.")
+   past steps: ("Use the select_known_robot_tool with Robot8 and the 'vacuum' tool property to ensure Robot8 is equipped to remove dust.", 'Yes, Robot8 with the tool property "broom" can still solve the task. The broom tool property is suitable for removing dust, which is the task at hand. Therefore, Robot8 can effectively remove dust with the broom tool property.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot8 and the desired position (5, 2) to move Robot8 to the correct location.
+        Use the grab_or_remove_item function with Robot8 and the item 'dust' to remove the dust from the location.
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status after completing the task.
+    current step:
+        Use the move_robot function with Robot8 and the desired position (5, 2) to move Robot8 to the correct location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it is responsible for controlling the robots and has the tool 'move_robot' to move Robot8 to the desired position (5, 2).
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot8 and the desired position (5, 2) to move Robot8 to the correct location.', 'Robot8 has been moved to the desired position (5, 2).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot8 and the item 'dust' to remove the dust from the location.
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status after completing the task.
+    current step:
+        Use the grab_or_remove_item function with Robot8 and the item 'dust' to remove the dust from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as the task involves using the grab_or_remove_item function to remove the dust from the location using Robot8.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot8 and the item 'dust' to remove the dust from the location.", 'The dust has been successfully removed from the location using Robot8.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status after completing the task.
+    current step:
+        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status after completing the task.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller because it involves changing the status of the robot, which falls under the responsibility of the Controller.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status after completing the task.", 'The status of Robot8 has been successfully changed to "idle" after completing the task.')
 ---
 replanner:
     response:
-        Robot48 has successfully moved to location (5, 6), removed the dust using its broom, and is now set to idle status.
+        The dust has been successfully removed from location (5, 2) by Robot8 using the broom tool property. Robot8's status is now set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -720,72 +720,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot31 to location (9, 4) and remove the grass.</t>
+          <t>Move Robot21 to location (9, 5) and remove the grass.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot31 and the 'lawnmower' tool property to ensure Robot31 is equipped to remove grass.
-        Use the move_robot function with Robot31 to move it to location (9, 4).
-        Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).
-        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
-    current step:
-       Use the select_known_robot_tool with Robot31 and the 'lawnmower' tool property to ensure Robot31 is equipped to remove grass.
+        Use the select_known_robot_tool with Robot21 and the 'lawnmower' tool property to ensure Robot21 is equipped to remove grass.
+        Use the move_robot function with Robot21 to move it to location (9, 5).
+        Use the grab_or_remove_item function with Robot21 to remove the grass at location (9, 5).
+        Use the robot_status_change function with Robot21 to set its status to 'idle' after the grass removal is complete.
+    current step:
+       Use the select_known_robot_tool with Robot21 and the 'lawnmower' tool property to ensure Robot21 is equipped to remove grass.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has requested to verify if a specific robot, Robot31, is equipped with a 'lawnmower' tool property. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the necessary tool property to solve the objective. The 'select_known_robot_tool' is the appropriate tool to use in this case to ensure Robot31 has the 'lawnmower' tool property required for removing grass.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot21 is equipped with the 'lawnmower' tool property to remove grass.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot31 and the 'lawnmower' tool property to ensure Robot31 is equipped to remove grass.", 'Robot31, equipped with the lawnmower tool property, has been selected to remove the grass.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot31 to move it to location (9, 4).
-        Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).
-        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
-    current step:
-        Use the move_robot function with Robot31 to move it to location (9, 4).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot (Robot31) to a specific location (9, 4). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to carry out this task. Therefore, the Controller is the correct worker to act next to execute the move_robot function.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot31 to move it to location (9, 4).', 'Robot31 has been successfully moved to the location (9, 4).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).
-        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving a robot (Robot31) and an item (grass). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the item at the specified location. Therefore, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function with Robot31 to remove the grass at location (9, 4).', 'Robot31 has successfully removed the grass.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
-    current step:
-        Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot31's status to 'idle' after completing the task of grass removal.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot31 to set its status to 'idle' after the grass removal is complete.", "Robot31's status has been successfully changed to 'idle' after completing the grass removal task.")
+   past steps: ("Use the select_known_robot_tool with Robot21 and the 'lawnmower' tool property to ensure Robot21 is equipped to remove grass.", 'Robot21 with the tool property: lawnmower has been selected to solve the task.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot21 to move it to location (9, 5).
+        Use the grab_or_remove_item function with Robot21 to remove the grass at location (9, 5).
+        Use the robot_status_change function with Robot21 to set its status to 'idle' after the grass removal is complete.
+    current step:
+        Use the move_robot function with Robot21 to move it to location (9, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves using the move_robot function to move Robot21 to a specific location.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot21 to move it to location (9, 5).', 'The robot has been successfully moved to the specified location (9, 5).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot21 to remove the grass at location (9, 5).
+        Use the robot_status_change function with Robot21 to set its status to 'idle' after the grass removal is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot21 to remove the grass at location (9, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next to use the grab_or_remove_item function with Robot21 to remove the grass at location (9, 5).
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function with Robot21 to remove the grass at location (9, 5).', 'The grass at location (9, 5) has been successfully removed by Robot21.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot21 to set its status to 'idle' after the grass removal is complete.
+    current step:
+        Use the robot_status_change function with Robot21 to set its status to 'idle' after the grass removal is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step requires using the robot_status_change function to set the status of Robot21 to 'idle' after the grass removal is complete. This action falls under the responsibility of the Controller, who is in charge of controlling the robots and their status changes.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot21 to set its status to 'idle' after the grass removal is complete.", "The status of Robot21 has been successfully changed to 'idle' after the grass removal is complete.")
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot31, equipped with the lawnmower tool property, has moved to location (9, 4) and removed the grass. The robot's status is now set to 'idle'.
+        The grass at location (9, 5) has been successfully removed by Robot21, and its status has been set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -794,72 +794,88 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot8 to location (8, 12) and remove the small debris.</t>
+          <t>Move Robot40 to location (12, 7) and remove the small debris.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot8 and the 'gripper' tool property to ensure Robot8 is equipped to remove small debris.
-        Use the move_robot function with Robot8 and the coordinates (8, 12) to move Robot8 to the desired location.
-        Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.
-        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
-    current step:
-       Use the select_known_robot_tool with Robot8 and the 'gripper' tool property to ensure Robot8 is equipped to remove small debris.
+        Use the select_known_robot_tool with Robot40 and the 'gripper' tool property to ensure Robot40 is equipped to remove small debris.
+        Use the move_robot function with Robot40 and the coordinates (12, 7) to move Robot40 to the location of the small debris.
+        Use the grab_or_remove_item function with Robot40 and the item name 'small debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot40 and the status 'idle' to set Robot40's status after the task is complete.
+    current step:
+       Use the select_known_robot_tool with Robot40 and the 'gripper' tool property to ensure Robot40 is equipped to remove small debris.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies a known robot (Robot8) and requires confirmation that it is equipped with a specific tool property ('gripper') to perform a task (remove small debris). The Robot_selector is responsible for selecting the correct robot and has the select_known_robot_tool which is used to determine if the specified robot has the required tool property to solve the objective.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot40 is equipped with the 'gripper' tool property to remove small debris.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot8 and the 'gripper' tool property to ensure Robot8 is equipped to remove small debris.", "The initial selected tool for Robot8 was a 'gripper', which is suitable for removing small debris. However, Robot8 is equipped with a 'broom'. According to the list of items with associated tool properties, a broom can also be used for small debris. Therefore, Robot8 with the tool property 'broom' can still solve the task of removing small debris.")
----
-replanner:
-    plan:
-        Use the move_robot function with Robot8 and the coordinates (8, 12) to move Robot8 to the desired location.
-        Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.
-        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
-    current step:
-        Use the move_robot function with Robot8 and the coordinates (8, 12) to move Robot8 to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot8 to the coordinates (8, 12). Therefore, the Controller is the correct worker to act next to perform the current_step.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot8 and the coordinates (8, 12) to move Robot8 to the desired location.', 'Robot8 has been successfully moved to the coordinates (8, 12).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.
-        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
-    current step:
-        Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'grab_or_remove_item' function with a particular robot, Robot8, and an item, 'small debris'. The Controller is responsible for controlling the robots and has the 'grab_or_remove_item' tool needed to perform this task. Therefore, the Controller should act next to execute the function and remove the debris from the location.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot8 and the item name 'small debris' to remove the debris from the location.", 'Robot8 has successfully grabbed or removed the small debris from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
-    current step:
-        Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot8's status to 'idle' after the task completion.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot8 and the status 'idle' to set Robot8's status to idle after completing the task.", "Robot8's status has been successfully changed to idle.")
+   past steps: ("Use the select_known_robot_tool with Robot40 and the 'gripper' tool property to ensure Robot40 is equipped to remove small debris.", 'Robot40 cannot solve the task with the tool property "vacuum" because the desired tool property for removing small debris is "gripper". The vacuum is not suitable for removing small debris, and therefore Robot40 cannot solve the task with the vacuum tool property.')
+---
+replanner:
+    plan:
+        Use the robot_selection_tool with the 'gripper' tool property and the item position (12, 7) to select the best suited robot to remove the small debris.
+        Use the move_robot function with the selected robot and the coordinates (12, 7) to move the robot to the location of the small debris.
+        Use the grab_or_remove_item function with the selected robot and the item name 'small debris' to remove the debris from the location.
+        Use the robot_status_change function with the selected robot and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+        Use the robot_selection_tool with the 'gripper' tool property and the item position (12, 7) to select the best suited robot to remove the small debris.
+---
+supervisor:
+   next agent: Robot_selector
+   reason: The Robot_selector should act next to use the robot_selection_tool to determine the best suited robot for removing the small debris.
+---
+Robot_selector:
+   past steps: ("Use the robot_selection_tool with the 'gripper' tool property and the item position (12, 7) to select the best suited robot to remove the small debris.", 'The best suited robot to remove the small debris at position (12, 7) is Robot32.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot32 and the coordinates (12, 7) to move the robot to the location of the small debris.
+        Use the grab_or_remove_item function with Robot32 and the item name 'small debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot32 and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+        Use the move_robot function with Robot32 and the coordinates (12, 7) to move the robot to the location of the small debris.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step requires controlling the robot to move to a specific location, which falls under the responsibility of the Controller. Therefore, the Controller should act next to execute the move_robot function.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot32 and the coordinates (12, 7) to move the robot to the location of the small debris.', 'The robot has been successfully moved to the location of the small debris.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot32 and the item name 'small debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot32 and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot32 and the item name 'small debris' to remove the debris from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next to use the grab_or_remove_item function with Robot32 to remove the debris from the location.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot32 and the item name 'small debris' to remove the debris from the location.", 'The small debris has been successfully removed by Robot32.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot32 and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+        Use the robot_status_change function with Robot32 and the status 'idle' to set the robot's status after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step is to set the robot's status to 'idle' after the task is complete, which falls under the responsibility of the Controller to control the robots and change their status.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot32 and the status 'idle' to set the robot's status after the task is complete.", 'The status of Robot32 has been successfully changed to "idle" after completing the task.')
 ---
 replanner:
     response:
-        Robot8 has successfully removed the small debris from location (8, 12) and is now set to idle status.
+        The small debris at location (12, 7) has been successfully removed by Robot32, and the robot's status has been set to 'idle' after completing the task.
 ---
 </t>
         </is>
@@ -868,72 +884,72 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot23 to location (11, 1) and remove the vehicle.</t>
+          <t>Move Robot13 to location (2, 5) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot23 and the 'tow hook' tool property to ensure Robot23 is equipped to remove the vehicle.
-        Use the move_robot function with Robot23 and the coordinates (11, 1) to move Robot23 to the desired location.
-        Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
-    current step:
-       Use the select_known_robot_tool with Robot23 and the 'tow hook' tool property to ensure Robot23 is equipped to remove the vehicle.
+        Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to ensure Robot13 is equipped to remove the vehicle.
+        Use the move_robot function with Robot13 and the desired position (2, 5) to move Robot13 to the location of the vehicle.
+        Use the grab_or_remove_item function with Robot13 and the item name 'vehicle' to remove the vehicle from the location.
+        Use the robot_status_change function with Robot13 and the status 'idle' to set Robot13's status to idle after the task is complete.
+    current step:
+       Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to ensure Robot13 is equipped to remove the vehicle.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has specified a particular robot, Robot23, and a tool property, 'tow hook', that is needed for the task. The Robot_selector is responsible for verifying if the specified robot has the required tool property to perform the task. Therefore, the Robot_selector should use the select_known_robot_tool to confirm that Robot23 is equipped with a 'tow hook' before proceeding with the task.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot13 is equipped with the 'tow hook' tool property.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot23 and the 'tow hook' tool property to ensure Robot23 is equipped to remove the vehicle.", 'Robot23 has been selected and is equipped with a tow hook to remove the vehicle.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot23 and the coordinates (11, 1) to move Robot23 to the desired location.
-        Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
-    current step:
-        Use the move_robot function with Robot23 and the coordinates (11, 1) to move Robot23 to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot to a desired location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot23 to the coordinates (11, 1). Therefore, the Controller is the correct worker to act next to fulfill this request.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot23 and the coordinates (11, 1) to move Robot23 to the desired location.', 'Robot23 has been successfully moved to the position with coordinates (11, 1).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
-    current step:
-        Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving a robot (Robot23) and an item ('vehicle'). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the vehicle from the location. Therefore, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot23 and 'vehicle' to remove the vehicle from the location.", 'Robot23 has successfully grabbed/removed the vehicle from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
-    current step:
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot23's status to 'idle' after the vehicle is removed. This matches the user request to use the robot_status_change function with Robot23.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot23 and set the status to 'idle' after the vehicle is removed.", 'Robot23 has successfully removed the vehicle and is now set to idle status.')
+   past steps: ("Use the select_known_robot_tool with Robot13 and the 'tow hook' tool property to ensure Robot13 is equipped to remove the vehicle.", 'Robot13 with the tow hook tool property has been selected to remove the vehicle.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot13 and the desired position (2, 5) to move Robot13 to the location of the vehicle.
+        Use the grab_or_remove_item function with Robot13 and the item name 'vehicle' to remove the vehicle from the location.
+        Use the robot_status_change function with Robot13 and the status 'idle' to set Robot13's status to idle after the task is complete.
+    current step:
+        Use the move_robot function with Robot13 and the desired position (2, 5) to move Robot13 to the location of the vehicle.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves controlling the robots and using the move_robot function to move Robot13 to the desired position.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot13 and the desired position (2, 5) to move Robot13 to the location of the vehicle.', 'Robot13 has been successfully moved to the location of the vehicle.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot13 and the item name 'vehicle' to remove the vehicle from the location.
+        Use the robot_status_change function with Robot13 and the status 'idle' to set Robot13's status to idle after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot13 and the item name 'vehicle' to remove the vehicle from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as the task involves using the grab_or_remove_item function to remove an item from the robot's location, which falls under the control and manipulation of the robot's inventory.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot13 and the item name 'vehicle' to remove the vehicle from the location.", 'The vehicle has been successfully removed from the location by Robot13.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot13 and the status 'idle' to set Robot13's status to idle after the task is complete.
+    current step:
+        Use the robot_status_change function with Robot13 and the status 'idle' to set Robot13's status to idle after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step is to set the status of Robot13 to idle after the task is complete, which falls under the responsibility of the Controller.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot13 and the status 'idle' to set Robot13's status to idle after the task is complete.", 'The status of Robot13 has been successfully changed to "idle."')
 ---
 replanner:
     response:
-        Robot23 equipped with a tow hook has successfully moved to location (11, 1), removed the vehicle, and is now set to idle status.
+        The vehicle has been successfully removed from location (2, 5) by Robot13, which was equipped with a tow hook. Robot13's status is now set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -942,72 +958,72 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot23 to location (12, 10) and remove the construction materials.</t>
+          <t>Move Robot9 to location (6, 3) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot23 and a tool property such as 'front loader' to ensure Robot23 is equipped to remove construction materials.
-        Use the move_robot function with Robot23 and the coordinates (12, 10) to move Robot23 to the desired location.
-        Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
-    current step:
-       Use the select_known_robot_tool with Robot23 and a tool property such as 'front loader' to ensure Robot23 is equipped to remove construction materials.
+        Use the select_known_robot_tool with Robot9 and a tool property capable of handling construction materials, such as 'front loader', to ensure Robot9 is equipped to complete the task.
+        Use the move_robot tool with Robot9 and the desired position (6, 3) to move Robot9 to the location of the construction materials.
+        Use the grab_or_remove_item tool with Robot9 and the name of the construction materials to remove them from the location.
+        Use the robot_status_change tool with Robot9 and set the status to 'idle' after the removal of the construction materials is complete.
+    current step:
+       Use the select_known_robot_tool with Robot9 and a tool property capable of handling construction materials, such as 'front loader', to ensure Robot9 is equipped to complete the task.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to use the 'select_known_robot_tool' to verify if Robot23 has the 'front loader' tool property necessary for removing construction materials. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the required tool property, making it the appropriate worker to act next.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot9 is equipped with a 'front loader' capable of handling construction materials.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot23 and a tool property such as 'front loader' to ensure Robot23 is equipped to remove construction materials.", 'The initial selected tool for Robot23 was a "front loader," which is appropriate for removing construction materials according to the provided list of items and associated tool properties. However, Robot23 is equipped with a "tow hook" instead.\n\nBased on the list, a "tow hook" is suitable for handling vehicles and construction materials. Therefore, even though Robot23 does not have the initially selected "front loader," it can still solve the task of removing construction materials using its "tow hook," as this tool is also associated with construction materials.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot23 and the coordinates (12, 10) to move Robot23 to the desired location.
-        Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
-    current step:
-        Use the move_robot function with Robot23 and the coordinates (12, 10) to move Robot23 to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot23 to the coordinates (12, 10). Therefore, the Controller is the correct worker to act next to fulfill this request.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot23 and the coordinates (12, 10) to move Robot23 to the desired location.', 'Robot23 has been successfully moved to the coordinates (12, 10).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
-    current step:
-        Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'grab_or_remove_item' function with a specific robot (Robot23) and an item ('construction materials'). The Controller is responsible for controlling the robots with a set of tools, including 'grab_or_remove_item'. Since the robot and the item are already specified, there is no need for the Robot_selector to act, and the task does not involve answering generic questions, which would require the misc_agent.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot23 and 'construction materials' to remove the items from the location.", 'Robot23 has successfully removed the construction materials from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
-    current step:
-        Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' function to set the status of Robot23 to 'idle' after the task is completed. This function is within the set of tools that the Controller is responsible for. Therefore, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot23 and set the status to 'idle' after the task is completed.", "The status of Robot23 has been successfully changed to 'idle'.")
+   past steps: ("Use the select_known_robot_tool with Robot9 and a tool property capable of handling construction materials, such as 'front loader', to ensure Robot9 is equipped to complete the task.", 'Robot9 with the tool property "front loader" has been selected to solve the task.')
+---
+replanner:
+    plan:
+        Use the move_robot tool with Robot9 and the desired position (6, 3) to move Robot9 to the location of the construction materials.
+        Use the grab_or_remove_item tool with Robot9 and the name of the construction materials to remove them from the location.
+        Use the robot_status_change tool with Robot9 and set the status to 'idle' after the removal of the construction materials is complete.
+    current step:
+        Use the move_robot tool with Robot9 and the desired position (6, 3) to move Robot9 to the location of the construction materials.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step requires using the move_robot tool to move Robot9 to a specific position. This falls under the responsibility of the Controller, who is in charge of controlling the robots with a set of tools, including the move_robot tool.
+---
+Controller:
+   past steps: ('Use the move_robot tool with Robot9 and the desired position (6, 3) to move Robot9 to the location of the construction materials.', 'Robot9 has been successfully moved to the location of the construction materials.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item tool with Robot9 and the name of the construction materials to remove them from the location.
+        Use the robot_status_change tool with Robot9 and set the status to 'idle' after the removal of the construction materials is complete.
+    current step:
+        Use the grab_or_remove_item tool with Robot9 and the name of the construction materials to remove them from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller because the task involves using the grab_or_remove_item tool to remove construction materials, which falls under the control and manipulation of the robots.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item tool with Robot9 and the name of the construction materials to remove them from the location.', 'The construction materials have been successfully removed by Robot9.')
+---
+replanner:
+    plan:
+        Use the robot_status_change tool with Robot9 and set the status to 'idle' after the removal of the construction materials is complete.
+    current step:
+        Use the robot_status_change tool with Robot9 and set the status to 'idle' after the removal of the construction materials is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step requires using the robot_status_change tool to set the status of Robot9 to 'idle' after the removal of the construction materials is complete. This falls under the responsibility of the Controller, who is in charge of controlling the robots and their status changes.
+---
+Controller:
+   past steps: ("Use the robot_status_change tool with Robot9 and set the status to 'idle' after the removal of the construction materials is complete.", 'The construction materials have been removed, and Robot9\'s status has been changed to "idle."')
 ---
 replanner:
     response:
-        The task has been completed successfully. Robot23, equipped with a tow hook, has moved to location (12, 10) and removed the construction materials. The robot's status is now set to 'idle'.
+        The construction materials at location (6, 3) have been successfully removed by Robot9, which was equipped with a front loader. Robot9's status has been set to 'idle' upon completion of the task.
 ---
 </t>
         </is>
@@ -1016,7 +1032,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot14 to location (7, 11) and remove the tree branches.</t>
+          <t>Move Robot14 to location (6, 12) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1024,64 +1040,64 @@
           <t xml:space="preserve">planner:
     plan:
         Use the select_known_robot_tool with Robot14 and the 'saw' tool property to ensure Robot14 is equipped to remove tree branches.
-        Use the move_robot function with Robot14 and the coordinates (7, 11) to move Robot14 to the location of the tree branches.
+        Use the move_robot function with Robot14 and the desired position (6, 12) to move Robot14 to the location of the tree branches.
         Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.
-        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the removal of the tree branches is complete.
     current step:
        Use the select_known_robot_tool with Robot14 and the 'saw' tool property to ensure Robot14 is equipped to remove tree branches.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has requested to verify if a specific robot, Robot14, is equipped with a 'saw' tool property to remove tree branches. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the necessary tool property using the select_known_robot_tool. Therefore, the Robot_selector should act next to ensure Robot14 has the 'saw' tool property required for the task.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot14 is equipped with the 'saw' tool property to remove tree branches.
 ---
 Robot_selector:
-   past steps: ("Use the select_known_robot_tool with Robot14 and the 'saw' tool property to ensure Robot14 is equipped to remove tree branches.", 'Robot14, equipped with a saw, has been selected to remove tree branches.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot14 and the coordinates (7, 11) to move Robot14 to the location of the tree branches.
+   past steps: ("Use the select_known_robot_tool with Robot14 and the 'saw' tool property to ensure Robot14 is equipped to remove tree branches.", 'Robot14 with the tool property "saw" has been selected to remove tree branches.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot14 and the desired position (6, 12) to move Robot14 to the location of the tree branches.
         Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.
-        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
-    current step:
-        Use the move_robot function with Robot14 and the coordinates (7, 11) to move Robot14 to the location of the tree branches.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving moving a robot to a certain location. The Controller is responsible for controlling the robots and has the tool 'move_robot' which is needed to move Robot14 to the desired position (7, 11). Therefore, the Controller is the correct worker to act next to fulfill this request.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot14 and the coordinates (7, 11) to move Robot14 to the location of the tree branches.', 'Robot14 has been successfully moved to the coordinates (7, 11) near the tree branches.')
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the removal of the tree branches is complete.
+    current step:
+        Use the move_robot function with Robot14 and the desired position (6, 12) to move Robot14 to the location of the tree branches.
+---
+supervisor:
+   next agent: Controller
+   reason: The next worker to act should be the Controller because the task requires using the move_robot function to move Robot14 to a desired position, which falls under the responsibility of the Controller.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot14 and the desired position (6, 12) to move Robot14 to the location of the tree branches.', 'Robot14 has been successfully moved to the location of the tree branches.')
 ---
 replanner:
     plan:
         Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.
-        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the removal of the tree branches is complete.
     current step:
         Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.
 ---
 supervisor:
    next agent: Controller
-   reason: The user request specifies the use of the 'grab_or_remove_item' function with a specific robot (Robot14) and an item ('tree branches'). The Controller is responsible for controlling the robots with a set of tools, including 'grab_or_remove_item'. Since the robot and the item are already specified, there is no need for the Robot_selector to act. Therefore, the Controller should perform the current_step.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.", 'Robot14 has successfully grabbed/removed the tree branches from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
-    current step:
-        Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' function to set Robot14's status to 'idle' after completing a task. The Controller is responsible for using this function as part of their toolset.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot14 and set the status to 'idle' after the tree branches have been removed.", 'Robot14 has successfully removed the tree branches and is now set to idle status.')
+   reason: The next step should be handled by the Controller because it involves using the grab_or_remove_item function to remove the tree branches from the location using Robot14.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot14 and 'tree branches' to remove the tree branches from the location.", 'The tree branches have been successfully removed by Robot14.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the removal of the tree branches is complete.
+    current step:
+        Use the robot_status_change function with Robot14 and set the status to 'idle' after the removal of the tree branches is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step requires using the robot_status_change function to set the status of Robot14 to 'idle' after the removal of the tree branches is complete. This falls under the responsibility of the Controller, who is responsible for controlling the robots and their status changes.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot14 and set the status to 'idle' after the removal of the tree branches is complete.", "The status of Robot14 has been set to 'idle' after the removal of the tree branches is complete.")
 ---
 replanner:
     response:
-        Robot14, equipped with a saw, has successfully moved to location (7, 11), removed the tree branches, and is now set to idle status.
+        The tree branches at location (6, 12) have been successfully removed by Robot14, which was equipped with a saw. Robot14's status has been set to 'idle' after completing the task.
 ---
 </t>
         </is>
@@ -1090,72 +1106,72 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (5, 3) and remove the screws.</t>
+          <t>Move Robot45 to location (3, 2) and remove the screws.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the select_known_robot_tool with Robot15 and the screwdriver tool property to ensure Robot15 is equipped to remove screws.
-        Use the move_robot function with Robot15 and the coordinates (5, 3) to move Robot15 to the desired location.
-        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
-    current step:
-       Use the select_known_robot_tool with Robot15 and the screwdriver tool property to ensure Robot15 is equipped to remove screws.
+        Use the select_known_robot_tool with Robot45 and the 'screwdriver' tool property to ensure Robot45 is equipped to remove screws.
+        Use the move_robot function with Robot45 and the desired position (3, 2) to move Robot45 to the correct location.
+        Use the grab_or_remove_item function with Robot45 and the item name 'screws' to remove the screws from the location.
+        Use the robot_status_change function with Robot45 and set the status to 'idle' to indicate that the objective is complete.
+    current step:
+       Use the select_known_robot_tool with Robot45 and the 'screwdriver' tool property to ensure Robot45 is equipped to remove screws.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has requested to verify if a specific robot, Robot15, is equipped with a tool property, in this case, a screwdriver, to remove screws. The Robot_selector is responsible for selecting the correct robot and determining if it is equipped with the necessary tool property using the select_known_robot_tool. Therefore, the Robot_selector should act next to ensure Robot15 has the screwdriver tool property required for the task.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to determine if Robot45 is equipped with the 'screwdriver' tool property.
 ---
 Robot_selector:
-   past steps: ('Use the select_known_robot_tool with Robot15 and the screwdriver tool property to ensure Robot15 is equipped to remove screws.', 'Robot15, equipped with a screwdriver, has been selected to remove screws.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot15 and the coordinates (5, 3) to move Robot15 to the desired location.
-        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
-    current step:
-        Use the move_robot function with Robot15 and the coordinates (5, 3) to move Robot15 to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot to a desired location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot15 to the coordinates (5, 3). Therefore, the Controller is the appropriate worker to act next to fulfill this request.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot15 and the coordinates (5, 3) to move Robot15 to the desired location.', 'Robot15 has been successfully moved to the coordinates (5, 3).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
-    current step:
-        Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a direct action involving a specific robot (Robot15) and an item ('screws'). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the screws from the location. Therefore, the Controller is the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot15 and the item name 'screws' to remove the screws from the location.", 'Robot15 has successfully grabbed/removed the screws from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
-    current step:
-        Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot15's status to 'idle' after the screws have been removed. This is a direct instruction involving a specific robot and its status change, which falls under the Controller's responsibilities.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot15 and set the status to 'idle' after the screws have been removed.", "The status of Robot15 has been changed to 'idle'.")
+   past steps: ("Use the select_known_robot_tool with Robot45 and the 'screwdriver' tool property to ensure Robot45 is equipped to remove screws.", 'Robot45 with the screwdriver tool property has been selected to solve the task of removing screws.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot45 and the desired position (3, 2) to move Robot45 to the correct location.
+        Use the grab_or_remove_item function with Robot45 and the item name 'screws' to remove the screws from the location.
+        Use the robot_status_change function with Robot45 and set the status to 'idle' to indicate that the objective is complete.
+    current step:
+        Use the move_robot function with Robot45 and the desired position (3, 2) to move Robot45 to the correct location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves using the move_robot tool to move Robot45 to the desired position (3, 2).
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot45 and the desired position (3, 2) to move Robot45 to the correct location.', 'Robot45 has been successfully moved to the desired position (3, 2).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot45 and the item name 'screws' to remove the screws from the location.
+        Use the robot_status_change function with Robot45 and set the status to 'idle' to indicate that the objective is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot45 and the item name 'screws' to remove the screws from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as the task involves using the grab_or_remove_item function to remove the screws from the location using Robot45.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot45 and the item name 'screws' to remove the screws from the location.", 'The screws have been successfully removed by Robot45.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot45 and set the status to 'idle' to indicate that the objective is complete.
+    current step:
+        Use the robot_status_change function with Robot45 and set the status to 'idle' to indicate that the objective is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next to use the robot_status_change function and set the status of Robot45 to 'idle' to indicate that the objective is complete.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot45 and set the status to 'idle' to indicate that the objective is complete.", "The status of Robot45 has been changed to 'idle' to indicate that the objective is complete.")
 ---
 replanner:
     response:
-        Robot15, equipped with a screwdriver, has successfully moved to location (5, 3) and removed the screws. The robot's status has been set to 'idle' upon completion of the task.
+        The task has been successfully completed. Robot45, equipped with a screwdriver, has moved to location (3, 2) and removed the screws. The robot's status has been set to 'idle' to indicate the completion of the objective.
 ---
 </t>
         </is>
